--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA4475-1748-F243-9886-4A6DEF31A104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CC13E-2590-0641-9D36-084138D6B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
@@ -9897,7 +9897,7 @@
     <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -14294,7 +14294,7 @@
     <col min="2" max="2" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="17.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>

--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206CC13E-2590-0641-9D36-084138D6B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5056978-B3C9-FB4C-9160-1EE327B2D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
-    <sheet name="Index" sheetId="7" r:id="rId1"/>
-    <sheet name="Intervention5y" sheetId="11" r:id="rId2"/>
-    <sheet name="Medications" sheetId="8" r:id="rId3"/>
-    <sheet name="Definitions" sheetId="3" r:id="rId4"/>
-    <sheet name="WuComparison" sheetId="9" r:id="rId5"/>
-    <sheet name="PotentialAds" sheetId="10" r:id="rId6"/>
+    <sheet name="KeyNeeds" sheetId="12" r:id="rId1"/>
+    <sheet name="Index" sheetId="7" r:id="rId2"/>
+    <sheet name="Intervention5y" sheetId="11" r:id="rId3"/>
+    <sheet name="Medications" sheetId="8" r:id="rId4"/>
+    <sheet name="Definitions" sheetId="3" r:id="rId5"/>
+    <sheet name="WuComparison" sheetId="9" r:id="rId6"/>
+    <sheet name="PotentialAds" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4055" uniqueCount="3032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="3055">
   <si>
     <t>.Typical</t>
   </si>
@@ -9160,6 +9161,97 @@
   <si>
     <t>outcome_12mo.Followup.antithrombotic.use_bin = INTERSECT($antithrombotic</t>
   </si>
+  <si>
+    <t>Covariates</t>
+  </si>
+  <si>
+    <t>Have:</t>
+  </si>
+  <si>
+    <t>Last treatment started w/in 5 years of initial diagnosis</t>
+  </si>
+  <si>
+    <t>Need:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Last treatment started w/in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2, &amp; 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> years of initial diagnosis</t>
+    </r>
+  </si>
+  <si>
+    <t>Hoping this gives us enough opportunity to find switches, when we impose minimum follow-up of 1 year</t>
+  </si>
+  <si>
+    <t>ED &amp; IP encounters specific to psych diagnosis</t>
+  </si>
+  <si>
+    <t>EP &amp; IP encoutners in total</t>
+  </si>
+  <si>
+    <t>IP encounters in total in agreement with Wu (note, Wu used death, but I do not think we have that reliably)</t>
+  </si>
+  <si>
+    <t>Possible:</t>
+  </si>
+  <si>
+    <t>"prior.X.use" for intervention medications in same categories</t>
+  </si>
+  <si>
+    <t>"prior.X.use" for antispychotics in different categories</t>
+  </si>
+  <si>
+    <t>baseline_regimen.change.since_dx.count</t>
+  </si>
+  <si>
+    <t>Adherence/PDC on same intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of "prior.X.use" for meds and baseline_regimen.change.Xmo.prior </t>
+  </si>
+  <si>
+    <t>baseline_regimen.change.Xmo.prior.count</t>
+  </si>
+  <si>
+    <t>Some other index date (e.g., randomly selected)</t>
+  </si>
+  <si>
+    <t>Will need to characterize and likely balance for prior use of key meds</t>
+  </si>
+  <si>
+    <t>Later:</t>
+  </si>
+  <si>
+    <t>Let's get the rest done first, unless we already have standard PDC calculations</t>
+  </si>
+  <si>
+    <t>Index Date &amp; Intervention Assignment</t>
+  </si>
+  <si>
+    <t>Trying to find a good way around caring about recentlly diagnosed patients + end of data/file + date obfuscation</t>
+  </si>
+  <si>
+    <t>Composite endpoint of ED/IP visit or suicide attempt (e.g., outcome_12mo.ip.visit.any.diagnosis.or.suicide.attempt)</t>
+  </si>
 </sst>
 </file>
 
@@ -9168,7 +9260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9274,6 +9366,13 @@
       <sz val="12"/>
       <name val="Aptos Mono"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -9346,7 +9445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9438,6 +9537,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9881,14 +9984,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B586A33-FF0D-0E41-8C7C-D87B43C8EA77}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C17" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D01C0-5A1A-7F42-B674-107DEA1902CC}">
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14277,7 +14530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB4B39-AA9E-784C-8BB0-61B7E8AA9AFF}">
   <dimension ref="A1:K215"/>
   <sheetViews>
@@ -21765,7 +22018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4B48C-890E-BF4B-9B08-E59B2499A9B7}">
   <dimension ref="A1:E233"/>
   <sheetViews>
@@ -24479,11 +24732,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0BC813-EAF8-824E-812E-7A722B23FC30}">
   <dimension ref="A1:B460"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26995,13 +27250,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB616C1-0245-A145-9C5E-CC32BFF16766}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27495,7 +27748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226D962-C026-3545-8E61-7B77C137CB33}">
   <dimension ref="A1:A22"/>
   <sheetViews>

--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C5CD2-B849-7043-A01A-9058E4A22B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0ECB7-686B-1640-BCF1-9B7A96880A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1780" yWindow="-24340" windowWidth="35840" windowHeight="20580" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
+    <workbookView xWindow="23520" yWindow="-22600" windowWidth="35840" windowHeight="20580" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyNeeds" sheetId="12" r:id="rId1"/>
@@ -15260,16 +15260,16 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -15324,30 +15324,6 @@
       <font>
         <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFFC4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -15782,8 +15758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B586A33-FF0D-0E41-8C7C-D87B43C8EA77}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15794,11 +15770,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>1460</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -15829,11 +15805,11 @@
       <c r="C4" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -15874,11 +15850,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>1442</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -15905,7 +15881,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>1452</v>
       </c>
     </row>
@@ -15932,11 +15908,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549E31AA-8D9A-D64E-8B26-991A72D834AE}">
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20311,13 +20288,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20329,11 +20306,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D01C0-5A1A-7F42-B674-107DEA1902CC}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24806,13 +24784,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24824,11 +24802,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB4B39-AA9E-784C-8BB0-61B7E8AA9AFF}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32469,13 +32448,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="11" priority="23">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="10" priority="24">
       <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32487,11 +32466,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6031B317-91C1-6248-9B06-06092AA02DBE}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40131,18 +40111,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:K1048576 B1:K1">
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:K1048576">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
@@ -40161,9 +40130,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4B48C-890E-BF4B-9B08-E59B2499A9B7}">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42875,8 +42845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0BC813-EAF8-824E-812E-7A722B23FC30}">
   <dimension ref="A1:B468"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45440,7 +45410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB616C1-0245-A145-9C5E-CC32BFF16766}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -45938,7 +45910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226D962-C026-3545-8E61-7B77C137CB33}">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0ECB7-686B-1640-BCF1-9B7A96880A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12127078-1BA3-894A-915C-94458458FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="-22600" windowWidth="35840" windowHeight="20580" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
+    <workbookView xWindow="23520" yWindow="-22600" windowWidth="35840" windowHeight="20580" activeTab="3" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyNeeds" sheetId="12" r:id="rId1"/>
     <sheet name="IndexPrior" sheetId="13" r:id="rId2"/>
     <sheet name="Index" sheetId="7" r:id="rId3"/>
-    <sheet name="Intervention5y" sheetId="11" r:id="rId4"/>
-    <sheet name="Intervention2y" sheetId="15" r:id="rId5"/>
-    <sheet name="Medications" sheetId="8" r:id="rId6"/>
-    <sheet name="Definitions" sheetId="3" r:id="rId7"/>
-    <sheet name="WuComparison" sheetId="9" r:id="rId8"/>
-    <sheet name="PotentialAds" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="Intervention5y" sheetId="11" r:id="rId5"/>
+    <sheet name="Intervention2y" sheetId="15" r:id="rId6"/>
+    <sheet name="Medications" sheetId="8" r:id="rId7"/>
+    <sheet name="Definitions" sheetId="3" r:id="rId8"/>
+    <sheet name="WuComparison" sheetId="9" r:id="rId9"/>
+    <sheet name="PotentialAds" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7087" uniqueCount="4946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="4962">
   <si>
     <t>.Typical</t>
   </si>
@@ -14953,6 +14954,54 @@
       </rPr>
       <t xml:space="preserve"> &amp; IP encoutners in total</t>
     </r>
+  </si>
+  <si>
+    <t>outcome_12mo.inpatient.visit.any = 1 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7321 ( 9.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8294 ( 9.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10150 ( 9.5) </t>
+  </si>
+  <si>
+    <t>baseline_12mo.prior.inpatient.visit.any = 1 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9404 (12.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10642 (11.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12716 (11.9) </t>
+  </si>
+  <si>
+    <t>baseline_6mo.prior.inpatient.visit.any = 1 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8464 (10.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9495 (10.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11282 (10.5) </t>
+  </si>
+  <si>
+    <t>baseline_3mo.prior.inpatient.visit.any = 1 (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7470 ( 9.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8377 ( 9.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9918 ( 9.3) </t>
   </si>
 </sst>
 </file>
@@ -15758,7 +15807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B586A33-FF0D-0E41-8C7C-D87B43C8EA77}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -15904,11 +15953,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226D962-C026-3545-8E61-7B77C137CB33}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29"/>
+    </row>
+    <row r="2" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>570</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549E31AA-8D9A-D64E-8B26-991A72D834AE}">
   <dimension ref="A1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -20306,7 +20481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D01C0-5A1A-7F42-B674-107DEA1902CC}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -24799,10 +24974,4564 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CB2048-F5D5-6341-A80C-98CB8B8A6273}">
+  <dimension ref="A1:F232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>78523</v>
+      </c>
+      <c r="C2">
+        <v>90629</v>
+      </c>
+      <c r="D2">
+        <v>107049</v>
+      </c>
+      <c r="F2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E13">
+        <v>2E-3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>587</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E29">
+        <v>0.02</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3169</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E30">
+        <v>2E-3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>596</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E31">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" t="s">
+        <v>766</v>
+      </c>
+      <c r="D32" t="s">
+        <v>768</v>
+      </c>
+      <c r="E32">
+        <v>1E-3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E34">
+        <v>2E-3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>603</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E35">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>604</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>605</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E37">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E38">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F38">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E39">
+        <v>0.156</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4947</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4948</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4949</v>
+      </c>
+      <c r="E41">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E42">
+        <v>0.02</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>809</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E52">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F60" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E61">
+        <v>1E-3</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3231</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3236</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3237</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71">
+        <v>0.05</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3241</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F77" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F79" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F80" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E82">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E83">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E84">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E85">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E86">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E87">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E88">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E89">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E90">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3276</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E91">
+        <v>0.01</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E92">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E93">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E94">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E95">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E96">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E97">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E98">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E99">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E100">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>620</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3298</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E101">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>621</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E102">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>622</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3302</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E103">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>623</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E104">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>624</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E105">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E106">
+        <v>1E-3</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>626</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E107">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>627</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E108">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>628</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3314</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E109">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>629</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3316</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E110">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>630</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3318</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E111">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>631</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3319</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3320</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E112">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>632</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E113">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>633</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E114">
+        <v>2E-3</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>634</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E115">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>635</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E116">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>636</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E117">
+        <v>0.01</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>637</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E118">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>638</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E119">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>639</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E120">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>640</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E121">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>641</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E122">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>642</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E123">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>643</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E124">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>644</v>
+      </c>
+      <c r="B125" t="s">
+        <v>768</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D125" t="s">
+        <v>952</v>
+      </c>
+      <c r="E125">
+        <v>1E-3</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>646</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E126">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>647</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E127" t="s">
+        <v>606</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>648</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3350</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E128">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>649</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E129">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>650</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E130">
+        <v>0.02</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>651</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E131">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>652</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E132">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>653</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E133">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>654</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E134">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>655</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E135">
+        <v>2E-3</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>657</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E136">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>658</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E137">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>659</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E138">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>660</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E139">
+        <v>2E-3</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>661</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E140">
+        <v>2E-3</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>662</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E141">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>663</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E142">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>664</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E143">
+        <v>2E-3</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>665</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E144">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>666</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E145">
+        <v>0.02</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>667</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3386</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E146">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>668</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E147">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>669</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E148">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>670</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E149">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>671</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E150">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>672</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E151">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>673</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E152">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>674</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E153">
+        <v>0.04</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>675</v>
+      </c>
+      <c r="B154" t="s">
+        <v>766</v>
+      </c>
+      <c r="C154" t="s">
+        <v>768</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E154">
+        <v>2E-3</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>676</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E155">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>677</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E156" t="s">
+        <v>606</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>678</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E157">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>679</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E158">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>680</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E159">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>681</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E160">
+        <v>0.01</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>682</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E161">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>683</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E162">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>684</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E163">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>685</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E164">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>686</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E165">
+        <v>0.01</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>687</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E166">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>688</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E167">
+        <v>0.01</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>689</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E168">
+        <v>1E-3</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>690</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E169">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>691</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E170">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>692</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E171">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>693</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E172">
+        <v>1E-3</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>694</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E173">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>695</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E174">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>696</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3443</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E175">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>697</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3445</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E176">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>698</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E177">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>699</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E178">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>700</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E179">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>701</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E180">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>702</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E181">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>703</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E182">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>704</v>
+      </c>
+      <c r="B183" t="s">
+        <v>766</v>
+      </c>
+      <c r="C183" t="s">
+        <v>766</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E183">
+        <v>2E-3</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>705</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E184">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>706</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E185">
+        <v>2E-3</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>707</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E186">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>708</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E187">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>709</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E188">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E189">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>36</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E190">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>37</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E191">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>38</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E192">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>39</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E193">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E194">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E195">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F195">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E196">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E197">
+        <v>0.04</v>
+      </c>
+      <c r="F197">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E198">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E199">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F199">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E200">
+        <v>0.26</v>
+      </c>
+      <c r="F200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>47</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E201">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F201">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E202">
+        <v>0.01</v>
+      </c>
+      <c r="F202">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E203">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F203">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E204">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F204">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>51</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E205">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E206">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>53</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3505</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E207">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>54</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E208">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E209">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>56</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E210">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>57</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E211">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>58</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E212">
+        <v>0.01</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>59</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E213">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>60</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E214">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>61</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E215">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>62</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E216">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E217">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E218">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E219">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4951</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4952</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4953</v>
+      </c>
+      <c r="E220">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4955</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4956</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4957</v>
+      </c>
+      <c r="E221">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4959</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4961</v>
+      </c>
+      <c r="E222">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3534</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E223">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>64</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E224">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>65</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3537</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E225">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>66</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E226">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>67</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E227">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>68</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E228">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>69</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E229">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>70</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E230">
+        <v>2E-3</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>71</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E231">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>72</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E232">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FB4B39-AA9E-784C-8BB0-61B7E8AA9AFF}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -32462,11 +37191,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6031B317-91C1-6248-9B06-06092AA02DBE}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
@@ -40126,11 +44855,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4B48C-890E-BF4B-9B08-E59B2499A9B7}">
   <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
@@ -42841,11 +47570,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0BC813-EAF8-824E-812E-7A722B23FC30}">
   <dimension ref="A1:B468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -45406,11 +50135,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB616C1-0245-A145-9C5E-CC32BFF16766}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -45904,130 +50633,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226D962-C026-3545-8E61-7B77C137CB33}">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29"/>
-    </row>
-    <row r="2" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>570</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0702DE-4C6D-8F46-8EE6-19FA1EDD9417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951561F-890B-7249-A5E4-2950448E53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" activeTab="7" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" activeTab="6" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyNeeds" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8409" uniqueCount="5534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="5547">
   <si>
     <t>.Typical</t>
   </si>
@@ -15765,12 +15765,6 @@
     <t>baseline.prior.snri.use.12mo</t>
   </si>
   <si>
-    <t>All Potential Features Included as Options</t>
-  </si>
-  <si>
-    <t>Exclude Baseline Prior Regimen Count</t>
-  </si>
-  <si>
     <t>baseline_regimens.prior_cnt (%)</t>
   </si>
   <si>
@@ -16386,27 +16380,6 @@
     <t>baseline.phq9.score.prior.06mo (mean (SD))</t>
   </si>
   <si>
-    <t xml:space="preserve">  4463 (32.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   916 (45.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1015 (28.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   472 (45.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3254 (36.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4029 (30.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7095 (19.7) </t>
-  </si>
-  <si>
     <t xml:space="preserve">  2583 (19.0) </t>
   </si>
   <si>
@@ -16452,69 +16425,9 @@
     <t xml:space="preserve">  5004 (13.9) </t>
   </si>
   <si>
-    <t xml:space="preserve">   229 ( 1.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    26 ( 1.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    48 ( 1.4) </t>
-  </si>
-  <si>
     <t xml:space="preserve">    15 ( 1.4) </t>
   </si>
   <si>
-    <t xml:space="preserve">   122 ( 1.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   163 ( 1.2) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   389 ( 1.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   140 ( 1.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    17 ( 0.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    27 ( 0.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     8 ( 0.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    86 ( 1.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   180 ( 1.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   398 ( 1.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   310 ( 2.3) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    29 ( 1.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    67 ( 1.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    21 ( 2.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   160 ( 1.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   226 ( 1.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   516 ( 1.4) </t>
-  </si>
-  <si>
     <t xml:space="preserve">   325 ( 2.4) </t>
   </si>
   <si>
@@ -16536,51 +16449,9 @@
     <t xml:space="preserve">   633 ( 1.8) </t>
   </si>
   <si>
-    <t xml:space="preserve">  5147 (37.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   690 (34.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1375 (39.0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   376 (35.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  3286 (36.7) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4322 (32.4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9584 (26.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1062 ( 7.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   160 ( 7.9) </t>
-  </si>
-  <si>
     <t xml:space="preserve">     3 ( 6.5) </t>
   </si>
   <si>
-    <t xml:space="preserve">   280 ( 7.9) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   100 ( 9.6) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   548 ( 6.1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1305 ( 9.8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2427 ( 6.7) </t>
-  </si>
-  <si>
     <t xml:space="preserve">   216 ( 1.6) </t>
   </si>
   <si>
@@ -16720,6 +16591,174 @@
   </si>
   <si>
     <t xml:space="preserve">  1508 ( 4.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1463 (10.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   194 ( 9.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2 ( 4.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   248 ( 7.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   108 (10.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   788 ( 8.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1285 ( 9.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3233 ( 9.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   230 ( 1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    53 ( 2.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    80 ( 2.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    32 ( 3.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   171 ( 1.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   232 ( 1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   471 ( 1.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2312 (17.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   287 (14.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   615 (17.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   156 (14.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1736 (19.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1512 (11.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3748 (10.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   653 ( 4.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   108 ( 5.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   190 ( 5.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    63 ( 6.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   367 ( 4.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   740 ( 5.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1407 ( 3.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   742 ( 5.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    45 ( 2.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   175 ( 5.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   293 ( 3.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   577 ( 4.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2053 ( 5.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3341 (24.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   460 (22.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1003 (28.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   236 (22.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2357 (26.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2498 (18.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5814 (16.2) </t>
+  </si>
+  <si>
+    <t>baseline.prior.ip.visit.any.12mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.ip.visit.any.03mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.ip.visit.any.06mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.er.visit.any.03mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.er.visit.any.12mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.er.visit.psych.diagnosis.03mo</t>
+  </si>
+  <si>
+    <t>baseline.prior.er.visit.any.06mo</t>
+  </si>
+  <si>
+    <t>baseline.allergy</t>
+  </si>
+  <si>
+    <t>cci_malignancy</t>
+  </si>
+  <si>
+    <t>cci_peripheral.vascular.disease</t>
+  </si>
+  <si>
+    <t>baseline.prior.opioid.use.03mo</t>
+  </si>
+  <si>
+    <t>Regimend: All Potential Features Included as Options</t>
+  </si>
+  <si>
+    <t>Regimen: Exclude Baseline Prior Regimen Count</t>
+  </si>
+  <si>
+    <t>Outcome:  All Potential Features Included as Options</t>
   </si>
 </sst>
 </file>
@@ -16942,7 +16981,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17036,22 +17075,25 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -17059,7 +17101,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -17114,54 +17156,6 @@
       <font>
         <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFFC4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFFC4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -17656,11 +17650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>1459</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -17691,11 +17685,11 @@
       <c r="C4" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -17736,11 +17730,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="49" t="s">
         <v>1441</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -25393,13 +25387,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29989,13 +29983,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30085,28 +30079,28 @@
         <v>4952</v>
       </c>
       <c r="B3" t="s">
-        <v>5514</v>
+        <v>5471</v>
       </c>
       <c r="C3" t="s">
-        <v>5515</v>
+        <v>5472</v>
       </c>
       <c r="D3" t="s">
-        <v>5481</v>
+        <v>5443</v>
       </c>
       <c r="E3" t="s">
-        <v>5516</v>
+        <v>5473</v>
       </c>
       <c r="F3" t="s">
-        <v>5517</v>
+        <v>5474</v>
       </c>
       <c r="G3" t="s">
-        <v>5518</v>
+        <v>5475</v>
       </c>
       <c r="H3" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="I3" t="s">
-        <v>5519</v>
+        <v>5476</v>
       </c>
       <c r="J3">
         <v>7.9000000000000001E-2</v>
@@ -30117,34 +30111,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="B4" t="s">
-        <v>5520</v>
+        <v>5491</v>
       </c>
       <c r="C4" t="s">
-        <v>5521</v>
+        <v>5492</v>
       </c>
       <c r="D4" t="s">
-        <v>5267</v>
+        <v>5493</v>
       </c>
       <c r="E4" t="s">
-        <v>5522</v>
+        <v>5494</v>
       </c>
       <c r="F4" t="s">
-        <v>5523</v>
+        <v>5495</v>
       </c>
       <c r="G4" t="s">
-        <v>5524</v>
+        <v>5496</v>
       </c>
       <c r="H4" t="s">
-        <v>5525</v>
+        <v>5497</v>
       </c>
       <c r="I4" t="s">
-        <v>5526</v>
+        <v>5498</v>
       </c>
       <c r="J4">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -30152,34 +30146,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4958</v>
+        <v>4961</v>
       </c>
       <c r="B5" t="s">
-        <v>5527</v>
+        <v>5499</v>
       </c>
       <c r="C5" t="s">
-        <v>5528</v>
+        <v>5500</v>
       </c>
       <c r="D5" t="s">
-        <v>5481</v>
+        <v>5265</v>
       </c>
       <c r="E5" t="s">
-        <v>5529</v>
+        <v>5501</v>
       </c>
       <c r="F5" t="s">
-        <v>5530</v>
+        <v>5502</v>
       </c>
       <c r="G5" t="s">
-        <v>5531</v>
+        <v>5503</v>
       </c>
       <c r="H5" t="s">
-        <v>5532</v>
+        <v>5504</v>
       </c>
       <c r="I5" t="s">
-        <v>5533</v>
+        <v>5505</v>
       </c>
       <c r="J5">
-        <v>5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -30187,34 +30181,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5217</v>
+        <v>4956</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>5477</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>5478</v>
       </c>
       <c r="D6" t="s">
-        <v>613</v>
+        <v>5265</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>5479</v>
       </c>
       <c r="F6" t="s">
-        <v>5218</v>
+        <v>5480</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>5481</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>5482</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>5483</v>
       </c>
       <c r="J6">
-        <v>0.63200000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -30222,95 +30216,101 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5219</v>
+        <v>4958</v>
       </c>
       <c r="B7" t="s">
-        <v>5220</v>
+        <v>5484</v>
       </c>
       <c r="C7" t="s">
-        <v>5221</v>
+        <v>5485</v>
       </c>
       <c r="D7" t="s">
-        <v>5222</v>
+        <v>5443</v>
       </c>
       <c r="E7" t="s">
-        <v>5223</v>
+        <v>5486</v>
       </c>
       <c r="F7" t="s">
-        <v>5224</v>
+        <v>5487</v>
       </c>
       <c r="G7" t="s">
-        <v>5225</v>
+        <v>5488</v>
       </c>
       <c r="H7" t="s">
-        <v>5226</v>
+        <v>5489</v>
       </c>
       <c r="I7" t="s">
-        <v>5227</v>
-      </c>
-      <c r="K7" t="s">
-        <v>213</v>
+        <v>5490</v>
+      </c>
+      <c r="J7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5228</v>
+        <v>5215</v>
       </c>
       <c r="B8" t="s">
-        <v>5229</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>5230</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
-        <v>5231</v>
+        <v>613</v>
       </c>
       <c r="E8" t="s">
-        <v>5232</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>5233</v>
+        <v>5216</v>
       </c>
       <c r="G8" t="s">
-        <v>5234</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>5235</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>5236</v>
-      </c>
-      <c r="K8" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="J8">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5237</v>
+        <v>5217</v>
       </c>
       <c r="B9" t="s">
-        <v>5238</v>
+        <v>5218</v>
       </c>
       <c r="C9" t="s">
-        <v>5239</v>
+        <v>5219</v>
       </c>
       <c r="D9" t="s">
-        <v>5240</v>
+        <v>5220</v>
       </c>
       <c r="E9" t="s">
-        <v>5241</v>
+        <v>5221</v>
       </c>
       <c r="F9" t="s">
-        <v>5242</v>
+        <v>5222</v>
       </c>
       <c r="G9" t="s">
-        <v>5243</v>
+        <v>5223</v>
       </c>
       <c r="H9" t="s">
-        <v>5244</v>
+        <v>5224</v>
       </c>
       <c r="I9" t="s">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="K9" t="s">
         <v>213</v>
@@ -30318,31 +30318,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5246</v>
+        <v>5226</v>
       </c>
       <c r="B10" t="s">
-        <v>5247</v>
+        <v>5227</v>
       </c>
       <c r="C10" t="s">
-        <v>5248</v>
+        <v>5228</v>
       </c>
       <c r="D10" t="s">
-        <v>5249</v>
+        <v>5229</v>
       </c>
       <c r="E10" t="s">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F10" t="s">
-        <v>5251</v>
+        <v>5231</v>
       </c>
       <c r="G10" t="s">
-        <v>5252</v>
+        <v>5232</v>
       </c>
       <c r="H10" t="s">
-        <v>5253</v>
+        <v>5233</v>
       </c>
       <c r="I10" t="s">
-        <v>5254</v>
+        <v>5234</v>
       </c>
       <c r="K10" t="s">
         <v>213</v>
@@ -30350,31 +30350,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="B11" t="s">
-        <v>5256</v>
+        <v>5236</v>
       </c>
       <c r="C11" t="s">
-        <v>5257</v>
+        <v>5237</v>
       </c>
       <c r="D11" t="s">
-        <v>5258</v>
+        <v>5238</v>
       </c>
       <c r="E11" t="s">
-        <v>5259</v>
+        <v>5239</v>
       </c>
       <c r="F11" t="s">
-        <v>5260</v>
+        <v>5240</v>
       </c>
       <c r="G11" t="s">
-        <v>5261</v>
+        <v>5241</v>
       </c>
       <c r="H11" t="s">
-        <v>5262</v>
+        <v>5242</v>
       </c>
       <c r="I11" t="s">
-        <v>5263</v>
+        <v>5243</v>
       </c>
       <c r="K11" t="s">
         <v>213</v>
@@ -30382,31 +30382,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5264</v>
+        <v>5244</v>
       </c>
       <c r="B12" t="s">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="C12" t="s">
-        <v>5266</v>
+        <v>5246</v>
       </c>
       <c r="D12" t="s">
-        <v>5267</v>
+        <v>5247</v>
       </c>
       <c r="E12" t="s">
-        <v>5268</v>
+        <v>5248</v>
       </c>
       <c r="F12" t="s">
-        <v>5269</v>
+        <v>5249</v>
       </c>
       <c r="G12" t="s">
-        <v>5270</v>
+        <v>5250</v>
       </c>
       <c r="H12" t="s">
-        <v>5271</v>
+        <v>5251</v>
       </c>
       <c r="I12" t="s">
-        <v>5272</v>
+        <v>5252</v>
       </c>
       <c r="K12" t="s">
         <v>213</v>
@@ -30414,31 +30414,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5273</v>
+        <v>5253</v>
       </c>
       <c r="B13" t="s">
-        <v>5274</v>
+        <v>5254</v>
       </c>
       <c r="C13" t="s">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>5256</v>
       </c>
       <c r="E13" t="s">
-        <v>5274</v>
+        <v>5257</v>
       </c>
       <c r="F13" t="s">
-        <v>5276</v>
+        <v>5258</v>
       </c>
       <c r="G13" t="s">
-        <v>5277</v>
+        <v>5259</v>
       </c>
       <c r="H13" t="s">
-        <v>5278</v>
+        <v>5260</v>
       </c>
       <c r="I13" t="s">
-        <v>5278</v>
+        <v>5261</v>
       </c>
       <c r="K13" t="s">
         <v>213</v>
@@ -30446,104 +30446,98 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>620</v>
+        <v>5262</v>
       </c>
       <c r="B14" t="s">
-        <v>4132</v>
+        <v>5263</v>
       </c>
       <c r="C14" t="s">
-        <v>4133</v>
+        <v>5264</v>
       </c>
       <c r="D14" t="s">
-        <v>4134</v>
+        <v>5265</v>
       </c>
       <c r="E14" t="s">
-        <v>4135</v>
+        <v>5266</v>
       </c>
       <c r="F14" t="s">
-        <v>4136</v>
+        <v>5267</v>
       </c>
       <c r="G14" t="s">
-        <v>4137</v>
+        <v>5268</v>
       </c>
       <c r="H14" t="s">
-        <v>4138</v>
+        <v>5269</v>
       </c>
       <c r="I14" t="s">
-        <v>4139</v>
-      </c>
-      <c r="J14">
-        <v>0.184</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>5270</v>
+      </c>
+      <c r="K14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5008</v>
+        <v>5271</v>
       </c>
       <c r="B15" t="s">
-        <v>5279</v>
+        <v>5272</v>
       </c>
       <c r="C15" t="s">
-        <v>5280</v>
+        <v>5273</v>
       </c>
       <c r="D15" t="s">
-        <v>5281</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>5282</v>
+        <v>5272</v>
       </c>
       <c r="F15" t="s">
-        <v>5283</v>
+        <v>5274</v>
       </c>
       <c r="G15" t="s">
-        <v>5284</v>
+        <v>5275</v>
       </c>
       <c r="H15" t="s">
-        <v>5285</v>
+        <v>5276</v>
       </c>
       <c r="I15" t="s">
-        <v>5286</v>
-      </c>
-      <c r="J15">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>5276</v>
+      </c>
+      <c r="K15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="B16" t="s">
-        <v>5287</v>
+        <v>4132</v>
       </c>
       <c r="C16" t="s">
-        <v>5288</v>
+        <v>4133</v>
       </c>
       <c r="D16" t="s">
-        <v>5289</v>
+        <v>4134</v>
       </c>
       <c r="E16" t="s">
-        <v>5290</v>
+        <v>4135</v>
       </c>
       <c r="F16" t="s">
-        <v>5291</v>
+        <v>4136</v>
       </c>
       <c r="G16" t="s">
-        <v>5292</v>
+        <v>4137</v>
       </c>
       <c r="H16" t="s">
-        <v>5293</v>
+        <v>4138</v>
       </c>
       <c r="I16" t="s">
-        <v>5294</v>
+        <v>4139</v>
       </c>
       <c r="J16">
-        <v>0.25800000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -30551,34 +30545,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>5003</v>
+        <v>5008</v>
       </c>
       <c r="B17" t="s">
-        <v>5295</v>
+        <v>5277</v>
       </c>
       <c r="C17" t="s">
-        <v>5296</v>
+        <v>5278</v>
       </c>
       <c r="D17" t="s">
-        <v>5297</v>
+        <v>5279</v>
       </c>
       <c r="E17" t="s">
-        <v>5298</v>
+        <v>5280</v>
       </c>
       <c r="F17" t="s">
-        <v>5299</v>
+        <v>5281</v>
       </c>
       <c r="G17" t="s">
-        <v>5300</v>
+        <v>5282</v>
       </c>
       <c r="H17" t="s">
-        <v>5301</v>
+        <v>5283</v>
       </c>
       <c r="I17" t="s">
-        <v>5302</v>
+        <v>5284</v>
       </c>
       <c r="J17">
-        <v>0.16200000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -30586,34 +30580,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>5066</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>5303</v>
+        <v>5285</v>
       </c>
       <c r="C18" t="s">
-        <v>5304</v>
+        <v>5286</v>
       </c>
       <c r="D18" t="s">
-        <v>5305</v>
+        <v>5287</v>
       </c>
       <c r="E18" t="s">
-        <v>5306</v>
+        <v>5288</v>
       </c>
       <c r="F18" t="s">
-        <v>5307</v>
+        <v>5289</v>
       </c>
       <c r="G18" t="s">
-        <v>5308</v>
+        <v>5290</v>
       </c>
       <c r="H18" t="s">
-        <v>5309</v>
+        <v>5291</v>
       </c>
       <c r="I18" t="s">
-        <v>5310</v>
+        <v>5292</v>
       </c>
       <c r="J18">
-        <v>0.17799999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -30621,34 +30615,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>5066</v>
       </c>
       <c r="B19" t="s">
-        <v>3833</v>
+        <v>5301</v>
       </c>
       <c r="C19" t="s">
-        <v>3834</v>
+        <v>5302</v>
       </c>
       <c r="D19" t="s">
-        <v>3835</v>
+        <v>5303</v>
       </c>
       <c r="E19" t="s">
-        <v>3836</v>
+        <v>5304</v>
       </c>
       <c r="F19" t="s">
-        <v>3837</v>
+        <v>5305</v>
       </c>
       <c r="G19" t="s">
-        <v>3838</v>
+        <v>5306</v>
       </c>
       <c r="H19" t="s">
-        <v>3839</v>
+        <v>5307</v>
       </c>
       <c r="I19" t="s">
-        <v>3840</v>
+        <v>5308</v>
       </c>
       <c r="J19">
-        <v>0.19600000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -30656,34 +30650,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>5003</v>
       </c>
       <c r="B20" t="s">
-        <v>5311</v>
+        <v>5293</v>
       </c>
       <c r="C20" t="s">
-        <v>5312</v>
+        <v>5294</v>
       </c>
       <c r="D20" t="s">
-        <v>5313</v>
+        <v>5295</v>
       </c>
       <c r="E20" t="s">
-        <v>5314</v>
+        <v>5296</v>
       </c>
       <c r="F20" t="s">
-        <v>5315</v>
+        <v>5297</v>
       </c>
       <c r="G20" t="s">
-        <v>5316</v>
+        <v>5298</v>
       </c>
       <c r="H20" t="s">
-        <v>5317</v>
+        <v>5299</v>
       </c>
       <c r="I20" t="s">
-        <v>5318</v>
+        <v>5300</v>
       </c>
       <c r="J20">
-        <v>0.186</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -30691,34 +30685,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5089</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>5319</v>
+        <v>3833</v>
       </c>
       <c r="C21" t="s">
-        <v>5320</v>
+        <v>3834</v>
       </c>
       <c r="D21" t="s">
-        <v>5240</v>
+        <v>3835</v>
       </c>
       <c r="E21" t="s">
-        <v>5321</v>
+        <v>3836</v>
       </c>
       <c r="F21" t="s">
-        <v>5322</v>
+        <v>3837</v>
       </c>
       <c r="G21" t="s">
-        <v>5323</v>
+        <v>3838</v>
       </c>
       <c r="H21" t="s">
-        <v>5324</v>
+        <v>3839</v>
       </c>
       <c r="I21" t="s">
-        <v>5325</v>
+        <v>3840</v>
       </c>
       <c r="J21">
-        <v>0.11899999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -30726,7 +30720,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="B22" t="s">
         <v>4713</v>
@@ -30761,34 +30755,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>5309</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>5310</v>
       </c>
       <c r="D23" t="s">
-        <v>613</v>
+        <v>5311</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>5312</v>
       </c>
       <c r="F23" t="s">
-        <v>5218</v>
+        <v>5313</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>5314</v>
       </c>
       <c r="H23" t="s">
-        <v>220</v>
+        <v>5315</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>5316</v>
       </c>
       <c r="J23">
-        <v>0.89100000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -30796,127 +30790,136 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1149</v>
+        <v>5416</v>
       </c>
       <c r="B24" t="s">
-        <v>5327</v>
+        <v>4735</v>
       </c>
       <c r="C24" t="s">
-        <v>5328</v>
+        <v>4736</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>4737</v>
       </c>
       <c r="E24" t="s">
-        <v>5329</v>
+        <v>4738</v>
       </c>
       <c r="F24" t="s">
-        <v>5276</v>
+        <v>4739</v>
       </c>
       <c r="G24" t="s">
-        <v>5330</v>
+        <v>4740</v>
       </c>
       <c r="H24" t="s">
-        <v>5331</v>
+        <v>4741</v>
       </c>
       <c r="I24" t="s">
-        <v>5332</v>
-      </c>
-      <c r="K24" t="s">
-        <v>213</v>
+        <v>4742</v>
+      </c>
+      <c r="J24">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K24">
+        <v>92.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1150</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>5333</v>
+        <v>4912</v>
       </c>
       <c r="C25" t="s">
-        <v>5334</v>
+        <v>4913</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>4914</v>
       </c>
       <c r="E25" t="s">
-        <v>5335</v>
+        <v>4915</v>
       </c>
       <c r="F25" t="s">
-        <v>5336</v>
+        <v>4916</v>
       </c>
       <c r="G25" t="s">
-        <v>5337</v>
+        <v>4917</v>
       </c>
       <c r="H25" t="s">
-        <v>5338</v>
+        <v>4918</v>
       </c>
       <c r="I25" t="s">
-        <v>5339</v>
-      </c>
-      <c r="K25" t="s">
-        <v>213</v>
+        <v>4919</v>
+      </c>
+      <c r="J25">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1151</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>5340</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>5341</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E26" t="s">
-        <v>5342</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>5343</v>
+        <v>5216</v>
       </c>
       <c r="G26" t="s">
-        <v>5344</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>5345</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>5346</v>
-      </c>
-      <c r="K26" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="J26">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B27" t="s">
-        <v>5347</v>
+        <v>5325</v>
       </c>
       <c r="C27" t="s">
-        <v>5348</v>
+        <v>5326</v>
       </c>
       <c r="D27" t="s">
         <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>5349</v>
+        <v>5327</v>
       </c>
       <c r="F27" t="s">
-        <v>5350</v>
+        <v>5274</v>
       </c>
       <c r="G27" t="s">
-        <v>5351</v>
+        <v>5328</v>
       </c>
       <c r="H27" t="s">
-        <v>5352</v>
+        <v>5329</v>
       </c>
       <c r="I27" t="s">
-        <v>5353</v>
+        <v>5330</v>
       </c>
       <c r="K27" t="s">
         <v>213</v>
@@ -30924,31 +30927,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B28" t="s">
-        <v>5354</v>
+        <v>5331</v>
       </c>
       <c r="C28" t="s">
-        <v>5355</v>
+        <v>5332</v>
       </c>
       <c r="D28" t="s">
         <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>5356</v>
+        <v>5333</v>
       </c>
       <c r="F28" t="s">
-        <v>5357</v>
+        <v>5334</v>
       </c>
       <c r="G28" t="s">
-        <v>5358</v>
+        <v>5335</v>
       </c>
       <c r="H28" t="s">
-        <v>5359</v>
+        <v>5336</v>
       </c>
       <c r="I28" t="s">
-        <v>5360</v>
+        <v>5337</v>
       </c>
       <c r="K28" t="s">
         <v>213</v>
@@ -30956,31 +30959,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B29" t="s">
-        <v>5361</v>
+        <v>5338</v>
       </c>
       <c r="C29" t="s">
-        <v>5362</v>
+        <v>5339</v>
       </c>
       <c r="D29" t="s">
         <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>5363</v>
+        <v>5340</v>
       </c>
       <c r="F29" t="s">
-        <v>5364</v>
+        <v>5341</v>
       </c>
       <c r="G29" t="s">
-        <v>5365</v>
+        <v>5342</v>
       </c>
       <c r="H29" t="s">
-        <v>5366</v>
+        <v>5343</v>
       </c>
       <c r="I29" t="s">
-        <v>5367</v>
+        <v>5344</v>
       </c>
       <c r="K29" t="s">
         <v>213</v>
@@ -30988,31 +30991,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B30" t="s">
-        <v>5368</v>
+        <v>5345</v>
       </c>
       <c r="C30" t="s">
-        <v>5369</v>
+        <v>5346</v>
       </c>
       <c r="D30" t="s">
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>5370</v>
+        <v>5347</v>
       </c>
       <c r="F30" t="s">
-        <v>5371</v>
+        <v>5348</v>
       </c>
       <c r="G30" t="s">
-        <v>5372</v>
+        <v>5349</v>
       </c>
       <c r="H30" t="s">
-        <v>5373</v>
+        <v>5350</v>
       </c>
       <c r="I30" t="s">
-        <v>5374</v>
+        <v>5351</v>
       </c>
       <c r="K30" t="s">
         <v>213</v>
@@ -31020,31 +31023,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B31" t="s">
-        <v>5375</v>
+        <v>5352</v>
       </c>
       <c r="C31" t="s">
-        <v>5369</v>
+        <v>5353</v>
       </c>
       <c r="D31" t="s">
         <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>5376</v>
+        <v>5354</v>
       </c>
       <c r="F31" t="s">
-        <v>5371</v>
+        <v>5355</v>
       </c>
       <c r="G31" t="s">
-        <v>5377</v>
+        <v>5356</v>
       </c>
       <c r="H31" t="s">
-        <v>5378</v>
+        <v>5357</v>
       </c>
       <c r="I31" t="s">
-        <v>5379</v>
+        <v>5358</v>
       </c>
       <c r="K31" t="s">
         <v>213</v>
@@ -31052,31 +31055,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B32" t="s">
-        <v>5380</v>
+        <v>5359</v>
       </c>
       <c r="C32" t="s">
-        <v>5381</v>
+        <v>5360</v>
       </c>
       <c r="D32" t="s">
-        <v>5382</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>5383</v>
+        <v>5361</v>
       </c>
       <c r="F32" t="s">
-        <v>5384</v>
+        <v>5362</v>
       </c>
       <c r="G32" t="s">
-        <v>5385</v>
+        <v>5363</v>
       </c>
       <c r="H32" t="s">
-        <v>5386</v>
+        <v>5364</v>
       </c>
       <c r="I32" t="s">
-        <v>5387</v>
+        <v>5365</v>
       </c>
       <c r="K32" t="s">
         <v>213</v>
@@ -31084,31 +31087,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B33" t="s">
-        <v>5388</v>
+        <v>5366</v>
       </c>
       <c r="C33" t="s">
-        <v>5389</v>
+        <v>5367</v>
       </c>
       <c r="D33" t="s">
-        <v>5390</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>5391</v>
+        <v>5368</v>
       </c>
       <c r="F33" t="s">
-        <v>5392</v>
+        <v>5369</v>
       </c>
       <c r="G33" t="s">
-        <v>5351</v>
+        <v>5370</v>
       </c>
       <c r="H33" t="s">
-        <v>5393</v>
+        <v>5371</v>
       </c>
       <c r="I33" t="s">
-        <v>5394</v>
+        <v>5372</v>
       </c>
       <c r="K33" t="s">
         <v>213</v>
@@ -31116,209 +31119,200 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>1156</v>
       </c>
       <c r="B34" t="s">
-        <v>4912</v>
+        <v>5373</v>
       </c>
       <c r="C34" t="s">
-        <v>4913</v>
+        <v>5367</v>
       </c>
       <c r="D34" t="s">
-        <v>4914</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>4915</v>
+        <v>5374</v>
       </c>
       <c r="F34" t="s">
-        <v>4916</v>
+        <v>5369</v>
       </c>
       <c r="G34" t="s">
-        <v>4917</v>
+        <v>5375</v>
       </c>
       <c r="H34" t="s">
-        <v>4918</v>
+        <v>5376</v>
       </c>
       <c r="I34" t="s">
-        <v>4919</v>
-      </c>
-      <c r="J34">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
+        <v>5377</v>
+      </c>
+      <c r="K34" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5077</v>
+        <v>1157</v>
       </c>
       <c r="B35" t="s">
-        <v>5395</v>
+        <v>5378</v>
       </c>
       <c r="C35" t="s">
-        <v>5396</v>
+        <v>5379</v>
       </c>
       <c r="D35" t="s">
-        <v>5397</v>
+        <v>5380</v>
       </c>
       <c r="E35" t="s">
-        <v>5398</v>
+        <v>5381</v>
       </c>
       <c r="F35" t="s">
-        <v>5392</v>
+        <v>5382</v>
       </c>
       <c r="G35" t="s">
-        <v>5399</v>
+        <v>5383</v>
       </c>
       <c r="H35" t="s">
-        <v>5400</v>
+        <v>5384</v>
       </c>
       <c r="I35" t="s">
-        <v>5401</v>
-      </c>
-      <c r="J35">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
+        <v>5385</v>
+      </c>
+      <c r="K35" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>1158</v>
       </c>
       <c r="B36" t="s">
-        <v>4769</v>
+        <v>5386</v>
       </c>
       <c r="C36" t="s">
-        <v>4770</v>
+        <v>5387</v>
       </c>
       <c r="D36" t="s">
-        <v>4771</v>
+        <v>5388</v>
       </c>
       <c r="E36" t="s">
-        <v>4772</v>
+        <v>5389</v>
       </c>
       <c r="F36" t="s">
-        <v>4773</v>
+        <v>5390</v>
       </c>
       <c r="G36" t="s">
-        <v>4774</v>
+        <v>5349</v>
       </c>
       <c r="H36" t="s">
-        <v>4775</v>
+        <v>5391</v>
       </c>
       <c r="I36" t="s">
-        <v>4776</v>
-      </c>
-      <c r="J36">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K36">
-        <v>56.2</v>
+        <v>5392</v>
+      </c>
+      <c r="K36" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5061</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>5402</v>
+        <v>4745</v>
       </c>
       <c r="C37" t="s">
-        <v>5403</v>
+        <v>4746</v>
       </c>
       <c r="D37" t="s">
-        <v>5404</v>
+        <v>4747</v>
       </c>
       <c r="E37" t="s">
-        <v>5405</v>
+        <v>4748</v>
       </c>
       <c r="F37" t="s">
-        <v>5406</v>
+        <v>4749</v>
       </c>
       <c r="G37" t="s">
-        <v>5407</v>
+        <v>4750</v>
       </c>
       <c r="H37" t="s">
-        <v>5408</v>
+        <v>4751</v>
       </c>
       <c r="I37" t="s">
-        <v>5409</v>
+        <v>4752</v>
       </c>
       <c r="J37">
-        <v>0.13900000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>4761</v>
+        <v>4769</v>
       </c>
       <c r="C38" t="s">
-        <v>4762</v>
+        <v>4770</v>
       </c>
       <c r="D38" t="s">
-        <v>4763</v>
+        <v>4771</v>
       </c>
       <c r="E38" t="s">
-        <v>4764</v>
+        <v>4772</v>
       </c>
       <c r="F38" t="s">
-        <v>4765</v>
+        <v>4773</v>
       </c>
       <c r="G38" t="s">
-        <v>4766</v>
+        <v>4774</v>
       </c>
       <c r="H38" t="s">
-        <v>4767</v>
+        <v>4775</v>
       </c>
       <c r="I38" t="s">
-        <v>4768</v>
+        <v>4776</v>
       </c>
       <c r="J38">
-        <v>0.08</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K38">
-        <v>52.3</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5032</v>
+        <v>5089</v>
       </c>
       <c r="B39" t="s">
-        <v>5410</v>
+        <v>5317</v>
       </c>
       <c r="C39" t="s">
-        <v>5411</v>
+        <v>5318</v>
       </c>
       <c r="D39" t="s">
-        <v>5412</v>
+        <v>5238</v>
       </c>
       <c r="E39" t="s">
-        <v>5413</v>
+        <v>5319</v>
       </c>
       <c r="F39" t="s">
-        <v>5414</v>
+        <v>5320</v>
       </c>
       <c r="G39" t="s">
-        <v>5415</v>
+        <v>5321</v>
       </c>
       <c r="H39" t="s">
-        <v>5416</v>
+        <v>5322</v>
       </c>
       <c r="I39" t="s">
-        <v>5417</v>
+        <v>5323</v>
       </c>
       <c r="J39">
-        <v>0.14499999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -31326,139 +31320,139 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>5083</v>
       </c>
       <c r="B40" t="s">
-        <v>4745</v>
+        <v>5427</v>
       </c>
       <c r="C40" t="s">
-        <v>4746</v>
+        <v>5428</v>
       </c>
       <c r="D40" t="s">
-        <v>4747</v>
+        <v>5429</v>
       </c>
       <c r="E40" t="s">
-        <v>4748</v>
+        <v>5430</v>
       </c>
       <c r="F40" t="s">
-        <v>4749</v>
+        <v>5431</v>
       </c>
       <c r="G40" t="s">
-        <v>4750</v>
+        <v>5432</v>
       </c>
       <c r="H40" t="s">
-        <v>4751</v>
+        <v>5433</v>
       </c>
       <c r="I40" t="s">
-        <v>4752</v>
+        <v>5434</v>
       </c>
       <c r="J40">
-        <v>0.112</v>
+        <v>0.182</v>
       </c>
       <c r="K40">
-        <v>64.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>5061</v>
       </c>
       <c r="B41" t="s">
-        <v>4753</v>
+        <v>5400</v>
       </c>
       <c r="C41" t="s">
-        <v>4754</v>
+        <v>5401</v>
       </c>
       <c r="D41" t="s">
-        <v>4755</v>
+        <v>5402</v>
       </c>
       <c r="E41" t="s">
-        <v>4756</v>
+        <v>5403</v>
       </c>
       <c r="F41" t="s">
-        <v>4757</v>
+        <v>5404</v>
       </c>
       <c r="G41" t="s">
-        <v>4758</v>
+        <v>5405</v>
       </c>
       <c r="H41" t="s">
-        <v>4759</v>
+        <v>5406</v>
       </c>
       <c r="I41" t="s">
-        <v>4760</v>
+        <v>5407</v>
       </c>
       <c r="J41">
-        <v>9.7000000000000003E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="K41">
-        <v>52.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>5418</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>4735</v>
+        <v>4753</v>
       </c>
       <c r="C42" t="s">
-        <v>4736</v>
+        <v>4754</v>
       </c>
       <c r="D42" t="s">
-        <v>4737</v>
+        <v>4755</v>
       </c>
       <c r="E42" t="s">
-        <v>4738</v>
+        <v>4756</v>
       </c>
       <c r="F42" t="s">
-        <v>4739</v>
+        <v>4757</v>
       </c>
       <c r="G42" t="s">
-        <v>4740</v>
+        <v>4758</v>
       </c>
       <c r="H42" t="s">
-        <v>4741</v>
+        <v>4759</v>
       </c>
       <c r="I42" t="s">
-        <v>4742</v>
+        <v>4760</v>
       </c>
       <c r="J42">
-        <v>0.21199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K42">
-        <v>92.6</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>5016</v>
+        <v>5019</v>
       </c>
       <c r="B43" t="s">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="C43" t="s">
-        <v>5274</v>
+        <v>5421</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>5256</v>
       </c>
       <c r="E43" t="s">
-        <v>5274</v>
+        <v>5422</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>5423</v>
       </c>
       <c r="G43" t="s">
-        <v>5274</v>
+        <v>5424</v>
       </c>
       <c r="H43" t="s">
-        <v>5278</v>
+        <v>5425</v>
       </c>
       <c r="I43" t="s">
-        <v>5278</v>
+        <v>5426</v>
       </c>
       <c r="J43">
-        <v>1.4999999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -31466,139 +31460,139 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5420</v>
+        <v>5048</v>
       </c>
       <c r="B44" t="s">
-        <v>4721</v>
+        <v>5506</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>5507</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>5395</v>
       </c>
       <c r="E44" t="s">
-        <v>4722</v>
+        <v>5508</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>5509</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>5510</v>
       </c>
       <c r="H44" t="s">
-        <v>4723</v>
+        <v>5511</v>
       </c>
       <c r="I44" t="s">
-        <v>4724</v>
-      </c>
-      <c r="J44" t="s">
-        <v>217</v>
+        <v>5512</v>
+      </c>
+      <c r="J44">
+        <v>0.107</v>
       </c>
       <c r="K44">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>5421</v>
+        <v>5418</v>
       </c>
       <c r="B45" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
       <c r="C45" t="s">
-        <v>4726</v>
+        <v>214</v>
       </c>
       <c r="D45" t="s">
-        <v>4727</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>4728</v>
+        <v>4722</v>
       </c>
       <c r="F45" t="s">
-        <v>4729</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>4730</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
-        <v>4731</v>
+        <v>4723</v>
       </c>
       <c r="I45" t="s">
-        <v>4732</v>
-      </c>
-      <c r="J45">
-        <v>0.153</v>
+        <v>4724</v>
+      </c>
+      <c r="J45" t="s">
+        <v>217</v>
       </c>
       <c r="K45">
-        <v>89.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>5082</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>5422</v>
+        <v>4761</v>
       </c>
       <c r="C46" t="s">
-        <v>5423</v>
+        <v>4762</v>
       </c>
       <c r="D46" t="s">
-        <v>5382</v>
+        <v>4763</v>
       </c>
       <c r="E46" t="s">
-        <v>5424</v>
+        <v>4764</v>
       </c>
       <c r="F46" t="s">
-        <v>5425</v>
+        <v>4765</v>
       </c>
       <c r="G46" t="s">
-        <v>5426</v>
+        <v>4766</v>
       </c>
       <c r="H46" t="s">
-        <v>5427</v>
+        <v>4767</v>
       </c>
       <c r="I46" t="s">
-        <v>5428</v>
+        <v>4768</v>
       </c>
       <c r="J46">
-        <v>0.224</v>
+        <v>0.08</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>5019</v>
+        <v>5077</v>
       </c>
       <c r="B47" t="s">
-        <v>5429</v>
+        <v>5393</v>
       </c>
       <c r="C47" t="s">
-        <v>5430</v>
+        <v>5394</v>
       </c>
       <c r="D47" t="s">
-        <v>5258</v>
+        <v>5395</v>
       </c>
       <c r="E47" t="s">
-        <v>5431</v>
+        <v>5396</v>
       </c>
       <c r="F47" t="s">
-        <v>5432</v>
+        <v>5390</v>
       </c>
       <c r="G47" t="s">
-        <v>5433</v>
+        <v>5397</v>
       </c>
       <c r="H47" t="s">
-        <v>5434</v>
+        <v>5398</v>
       </c>
       <c r="I47" t="s">
-        <v>5435</v>
+        <v>5399</v>
       </c>
       <c r="J47">
-        <v>0.111</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -31606,69 +31600,69 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>5083</v>
+        <v>5419</v>
       </c>
       <c r="B48" t="s">
-        <v>5436</v>
+        <v>4725</v>
       </c>
       <c r="C48" t="s">
-        <v>5437</v>
+        <v>4726</v>
       </c>
       <c r="D48" t="s">
-        <v>5438</v>
+        <v>4727</v>
       </c>
       <c r="E48" t="s">
-        <v>5439</v>
+        <v>4728</v>
       </c>
       <c r="F48" t="s">
-        <v>5440</v>
+        <v>4729</v>
       </c>
       <c r="G48" t="s">
-        <v>5441</v>
+        <v>4730</v>
       </c>
       <c r="H48" t="s">
-        <v>5442</v>
+        <v>4731</v>
       </c>
       <c r="I48" t="s">
-        <v>5443</v>
+        <v>4732</v>
       </c>
       <c r="J48">
-        <v>0.182</v>
+        <v>0.153</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>5032</v>
       </c>
       <c r="B49" t="s">
-        <v>4904</v>
+        <v>5408</v>
       </c>
       <c r="C49" t="s">
-        <v>4905</v>
+        <v>5409</v>
       </c>
       <c r="D49" t="s">
-        <v>4906</v>
+        <v>5410</v>
       </c>
       <c r="E49" t="s">
-        <v>4907</v>
+        <v>5411</v>
       </c>
       <c r="F49" t="s">
-        <v>4908</v>
+        <v>5412</v>
       </c>
       <c r="G49" t="s">
-        <v>4909</v>
+        <v>5413</v>
       </c>
       <c r="H49" t="s">
-        <v>4910</v>
+        <v>5414</v>
       </c>
       <c r="I49" t="s">
-        <v>4911</v>
+        <v>5415</v>
       </c>
       <c r="J49">
-        <v>0.11600000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -31676,34 +31670,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>5070</v>
+        <v>5016</v>
       </c>
       <c r="B50" t="s">
-        <v>5444</v>
+        <v>5417</v>
       </c>
       <c r="C50" t="s">
-        <v>5445</v>
+        <v>5272</v>
       </c>
       <c r="D50" t="s">
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>5446</v>
+        <v>5272</v>
       </c>
       <c r="F50" t="s">
-        <v>5447</v>
+        <v>218</v>
       </c>
       <c r="G50" t="s">
-        <v>5448</v>
+        <v>5272</v>
       </c>
       <c r="H50" t="s">
-        <v>5449</v>
+        <v>5276</v>
       </c>
       <c r="I50" t="s">
-        <v>5450</v>
+        <v>5276</v>
       </c>
       <c r="J50">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -31711,34 +31705,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>5055</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>5451</v>
+        <v>4904</v>
       </c>
       <c r="C51" t="s">
-        <v>5452</v>
+        <v>4905</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>4906</v>
       </c>
       <c r="E51" t="s">
-        <v>5453</v>
+        <v>4907</v>
       </c>
       <c r="F51" t="s">
-        <v>5454</v>
+        <v>4908</v>
       </c>
       <c r="G51" t="s">
-        <v>5455</v>
+        <v>4909</v>
       </c>
       <c r="H51" t="s">
-        <v>5456</v>
+        <v>4910</v>
       </c>
       <c r="I51" t="s">
-        <v>5457</v>
+        <v>4911</v>
       </c>
       <c r="J51">
-        <v>5.3999999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -31746,34 +31740,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>5012</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>5458</v>
+        <v>4117</v>
       </c>
       <c r="C52" t="s">
-        <v>5459</v>
+        <v>4118</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>4119</v>
       </c>
       <c r="E52" t="s">
-        <v>5460</v>
+        <v>4120</v>
       </c>
       <c r="F52" t="s">
-        <v>5461</v>
+        <v>4121</v>
       </c>
       <c r="G52" t="s">
-        <v>5462</v>
+        <v>4122</v>
       </c>
       <c r="H52" t="s">
-        <v>5463</v>
+        <v>4123</v>
       </c>
       <c r="I52" t="s">
-        <v>5464</v>
+        <v>4117</v>
       </c>
       <c r="J52">
-        <v>6.9000000000000006E-2</v>
+        <v>0.129</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -31781,34 +31775,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5088</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>5465</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>5466</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E53" t="s">
-        <v>5467</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>5468</v>
+        <v>5216</v>
       </c>
       <c r="G53" t="s">
-        <v>5469</v>
+        <v>220</v>
       </c>
       <c r="H53" t="s">
-        <v>5470</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>5471</v>
+        <v>219</v>
       </c>
       <c r="J53">
-        <v>7.2999999999999995E-2</v>
+        <v>0.221</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -31816,136 +31810,127 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5009</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>5472</v>
+        <v>5444</v>
       </c>
       <c r="C54" t="s">
-        <v>5473</v>
+        <v>5445</v>
       </c>
       <c r="D54" t="s">
-        <v>5297</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>5474</v>
+        <v>5438</v>
       </c>
       <c r="F54" t="s">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="G54" t="s">
-        <v>5476</v>
+        <v>5446</v>
       </c>
       <c r="H54" t="s">
-        <v>5477</v>
+        <v>5447</v>
       </c>
       <c r="I54" t="s">
-        <v>5478</v>
-      </c>
-      <c r="J54">
-        <v>0.112</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
+        <v>5448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>5006</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>5479</v>
+        <v>5449</v>
       </c>
       <c r="C55" t="s">
-        <v>5480</v>
+        <v>5450</v>
       </c>
       <c r="D55" t="s">
-        <v>5481</v>
+        <v>5395</v>
       </c>
       <c r="E55" t="s">
-        <v>5482</v>
+        <v>5451</v>
       </c>
       <c r="F55" t="s">
-        <v>5483</v>
+        <v>5452</v>
       </c>
       <c r="G55" t="s">
-        <v>5484</v>
+        <v>5453</v>
       </c>
       <c r="H55" t="s">
-        <v>5485</v>
+        <v>5454</v>
       </c>
       <c r="I55" t="s">
-        <v>5486</v>
-      </c>
-      <c r="J55">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
+        <v>5455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>5456</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>5457</v>
       </c>
       <c r="D56" t="s">
-        <v>613</v>
+        <v>5458</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>5459</v>
       </c>
       <c r="F56" t="s">
-        <v>5218</v>
+        <v>5460</v>
       </c>
       <c r="G56" t="s">
-        <v>220</v>
+        <v>5461</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>5462</v>
       </c>
       <c r="I56" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56">
-        <v>0.221</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
+        <v>5463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>5487</v>
+        <v>5464</v>
       </c>
       <c r="C57" t="s">
-        <v>5488</v>
+        <v>5465</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>5458</v>
       </c>
       <c r="E57" t="s">
+        <v>5466</v>
+      </c>
+      <c r="F57" t="s">
         <v>5467</v>
       </c>
-      <c r="F57" t="s">
-        <v>5447</v>
-      </c>
       <c r="G57" t="s">
-        <v>5489</v>
+        <v>5468</v>
       </c>
       <c r="H57" t="s">
-        <v>5490</v>
+        <v>5469</v>
       </c>
       <c r="I57" t="s">
-        <v>5491</v>
+        <v>5470</v>
       </c>
       <c r="K57" t="s">
         <v>213</v>
@@ -31953,130 +31938,139 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>5043</v>
       </c>
       <c r="B58" t="s">
-        <v>5492</v>
+        <v>5513</v>
       </c>
       <c r="C58" t="s">
-        <v>5493</v>
+        <v>5514</v>
       </c>
       <c r="D58" t="s">
-        <v>5397</v>
+        <v>5443</v>
       </c>
       <c r="E58" t="s">
-        <v>5494</v>
+        <v>5515</v>
       </c>
       <c r="F58" t="s">
-        <v>5495</v>
+        <v>5516</v>
       </c>
       <c r="G58" t="s">
-        <v>5496</v>
+        <v>5517</v>
       </c>
       <c r="H58" t="s">
-        <v>5497</v>
+        <v>5518</v>
       </c>
       <c r="I58" t="s">
-        <v>5498</v>
-      </c>
-      <c r="K58" t="s">
-        <v>213</v>
+        <v>5519</v>
+      </c>
+      <c r="J58">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>230</v>
+        <v>5088</v>
       </c>
       <c r="B59" t="s">
-        <v>5499</v>
+        <v>5436</v>
       </c>
       <c r="C59" t="s">
-        <v>5500</v>
+        <v>5437</v>
       </c>
       <c r="D59" t="s">
-        <v>5501</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>5502</v>
+        <v>5438</v>
       </c>
       <c r="F59" t="s">
-        <v>5503</v>
+        <v>5439</v>
       </c>
       <c r="G59" t="s">
-        <v>5504</v>
+        <v>5440</v>
       </c>
       <c r="H59" t="s">
-        <v>5505</v>
+        <v>5441</v>
       </c>
       <c r="I59" t="s">
-        <v>5506</v>
-      </c>
-      <c r="K59" t="s">
-        <v>213</v>
+        <v>5442</v>
+      </c>
+      <c r="J59">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>5507</v>
+        <v>5520</v>
       </c>
       <c r="C60" t="s">
-        <v>5508</v>
+        <v>5521</v>
       </c>
       <c r="D60" t="s">
-        <v>5501</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>5509</v>
+        <v>5522</v>
       </c>
       <c r="F60" t="s">
-        <v>5510</v>
+        <v>5502</v>
       </c>
       <c r="G60" t="s">
-        <v>5511</v>
+        <v>5523</v>
       </c>
       <c r="H60" t="s">
-        <v>5512</v>
+        <v>5524</v>
       </c>
       <c r="I60" t="s">
-        <v>5513</v>
-      </c>
-      <c r="K60" t="s">
-        <v>213</v>
+        <v>5525</v>
+      </c>
+      <c r="J60">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>5097</v>
       </c>
       <c r="B61" t="s">
-        <v>4117</v>
+        <v>5526</v>
       </c>
       <c r="C61" t="s">
-        <v>4118</v>
+        <v>5527</v>
       </c>
       <c r="D61" t="s">
-        <v>4119</v>
+        <v>5429</v>
       </c>
       <c r="E61" t="s">
-        <v>4120</v>
+        <v>5528</v>
       </c>
       <c r="F61" t="s">
-        <v>4121</v>
+        <v>5529</v>
       </c>
       <c r="G61" t="s">
-        <v>4122</v>
+        <v>5530</v>
       </c>
       <c r="H61" t="s">
-        <v>4123</v>
+        <v>5531</v>
       </c>
       <c r="I61" t="s">
-        <v>4117</v>
+        <v>5532</v>
       </c>
       <c r="J61">
-        <v>0.129</v>
+        <v>0.113</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -39911,25 +39905,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:K1048576 B1:K1">
-    <cfRule type="expression" dxfId="24" priority="25">
+  <conditionalFormatting sqref="A1:K1048576">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
-      <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="21" priority="1">
-      <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39946,7 +39929,7 @@
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47761,18 +47744,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:K1048576 B1:K1">
-    <cfRule type="expression" dxfId="18" priority="4">
-      <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="5">
-      <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
-      <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:K1048576">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
@@ -47789,9 +47761,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDD937-B18B-C541-9970-925A1C4CD83B}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47801,30 +47773,37 @@
     <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="47"/>
+      <c r="B1" s="50" t="s">
         <v>5180</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="47"/>
       <c r="K1" s="51" t="s">
-        <v>5215</v>
+        <v>5544</v>
       </c>
       <c r="L1" s="51"/>
       <c r="N1" s="51" t="s">
-        <v>5216</v>
+        <v>5545</v>
       </c>
       <c r="O1" s="51"/>
-    </row>
-    <row r="2" spans="1:15" s="46" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="51" t="s">
+        <v>5546</v>
+      </c>
+      <c r="R1" s="51"/>
+    </row>
+    <row r="2" spans="1:18" s="45" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>5176</v>
       </c>
@@ -47849,633 +47828,795 @@
       <c r="H2" s="15">
         <v>6</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>5177</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>5178</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>5179</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>5178</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="48" t="s">
         <v>5179</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="15" t="s">
+        <v>5178</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="43">
         <v>0.1757174</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <v>0.47417219999999999</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <v>0.26173659999999999</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <v>7.1670300000000006E-2</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <v>1.43488E-2</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="43">
         <v>2.2810999999999999E-3</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="43">
         <v>7.36E-5</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <f>SUM(B3:H3)</f>
         <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>5180</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>0.91190309999999997</v>
       </c>
       <c r="N3" t="s">
         <v>5199</v>
       </c>
-      <c r="O3" s="47">
+      <c r="O3" s="46">
         <v>0.182999</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>5533</v>
+      </c>
+      <c r="R3" s="46">
+        <v>0.556173366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1679</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="43">
         <v>0.1225296</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>0.27667979999999998</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>0.30681819999999999</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>0.2030632</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="43">
         <v>7.5098799999999993E-2</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="43">
         <v>1.48221E-2</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="43">
         <v>9.881E-4</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <f t="shared" ref="I4:I10" si="0">SUM(B4:H4)</f>
         <v>0.99999979999999999</v>
       </c>
       <c r="K4" t="s">
         <v>5181</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="46">
         <v>1.93989E-2</v>
       </c>
       <c r="N4" t="s">
         <v>5205</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="46">
         <v>0.15320500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>5534</v>
+      </c>
+      <c r="R4" s="46">
+        <v>0.218489775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1680</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="43">
         <v>8.6956500000000006E-2</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>0.1956522</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="43">
         <v>0.28260869999999999</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>0.26086959999999998</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <v>0.1521739</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="43">
         <v>2.1739100000000001E-2</v>
       </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5" s="43">
+        <v>0</v>
+      </c>
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>5182</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="46">
         <v>1.2468399999999999E-2</v>
       </c>
       <c r="N5" t="s">
         <v>5206</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="46">
         <v>0.121072</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>5535</v>
+      </c>
+      <c r="R5" s="46">
+        <v>0.17621409900000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>571</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="43">
         <v>0.27636050000000001</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>0.31632650000000001</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="43">
         <v>0.23781179999999999</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>0.12613379999999999</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>3.7131499999999998E-2</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <v>5.9524000000000001E-3</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <v>2.834E-4</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>0.99999989999999994</v>
       </c>
       <c r="K6" t="s">
         <v>5183</v>
       </c>
-      <c r="L6" s="47">
+      <c r="L6" s="46">
         <v>7.6327000000000001E-3</v>
       </c>
       <c r="N6" t="s">
         <v>5207</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="46">
         <v>0.102158</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>5536</v>
+      </c>
+      <c r="R6" s="46">
+        <v>1.6611445999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1681</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="43">
         <v>0.14531549999999999</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>0.22275329999999999</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="43">
         <v>0.29541109999999998</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>0.2313576</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="43">
         <v>8.5085999999999995E-2</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="43">
         <v>1.8164400000000001E-2</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="43">
         <v>1.9120000000000001E-3</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
         <v>0.99999989999999994</v>
       </c>
       <c r="K7" t="s">
         <v>5184</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="46">
         <v>7.4567000000000001E-3</v>
       </c>
       <c r="N7" t="s">
         <v>5181</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="46">
         <v>9.3465999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>5199</v>
+      </c>
+      <c r="R7" s="46">
+        <v>9.695314E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1682</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <v>0.15227350000000001</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>0.40263660000000001</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="43">
         <v>0.30879230000000002</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>0.1103787</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
         <v>2.2567299999999998E-2</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="43">
         <v>3.0163999999999998E-3</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="43">
         <v>3.3520000000000002E-4</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>5185</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="46">
         <v>7.3369999999999998E-3</v>
       </c>
       <c r="N8" t="s">
         <v>5182</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="46">
         <v>5.0250999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>5537</v>
+      </c>
+      <c r="R8" s="46">
+        <v>6.7304340000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1683</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <v>0.22470390000000001</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>0.48515960000000002</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="43">
         <v>0.2019937</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>7.3002499999999998E-2</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <v>1.3266399999999999E-2</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="43">
         <v>1.7239E-3</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <v>1.4990000000000001E-4</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f t="shared" si="0"/>
         <v>0.99999990000000005</v>
       </c>
       <c r="K9" t="s">
         <v>5186</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="46">
         <v>5.8783000000000004E-3</v>
       </c>
       <c r="N9" t="s">
         <v>5184</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="46">
         <v>3.7449999999999997E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>5538</v>
+      </c>
+      <c r="R9" s="46">
+        <v>6.6706420000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1684</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <v>0.48805419999999999</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <v>0.34689969999999998</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="43">
         <v>0.1242082</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>3.3837100000000002E-2</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <v>6.1951000000000003E-3</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="43">
         <v>7.5009999999999996E-4</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="43">
         <v>5.5600000000000003E-5</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K10" t="s">
         <v>5187</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="46">
         <v>5.4108999999999997E-3</v>
       </c>
       <c r="N10" t="s">
         <v>5208</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="46">
         <v>3.1848000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>5539</v>
+      </c>
+      <c r="R10" s="46">
+        <v>3.70529E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K11" t="s">
         <v>5188</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="46">
         <v>3.6288000000000002E-3</v>
       </c>
       <c r="N11" t="s">
         <v>5183</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="46">
         <v>3.1278E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>5540</v>
+      </c>
+      <c r="R11" s="46">
+        <v>1.5170750000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>5189</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="46">
         <v>3.0325999999999999E-3</v>
       </c>
       <c r="N12" t="s">
         <v>5187</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="46">
         <v>3.0372E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>5198</v>
+      </c>
+      <c r="R12" s="46">
+        <v>1.330464E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>5190</v>
       </c>
-      <c r="L13" s="47">
+      <c r="L13" s="46">
         <v>2.9832000000000001E-3</v>
       </c>
       <c r="N13" t="s">
         <v>5186</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="46">
         <v>1.9230000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>5212</v>
+      </c>
+      <c r="R13" s="46">
+        <v>8.7667400000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>5191</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="46">
         <v>2.3195999999999998E-3</v>
       </c>
       <c r="N14" t="s">
         <v>5191</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="46">
         <v>1.8037999999999998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>5201</v>
+      </c>
+      <c r="R14" s="46">
+        <v>8.6002599999999995E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>5192</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <v>1.9534000000000001E-3</v>
       </c>
       <c r="N15" t="s">
         <v>5185</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="46">
         <v>1.7465999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>5180</v>
+      </c>
+      <c r="R15" s="46">
+        <v>4.6503700000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
         <v>5193</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="46">
         <v>1.7052E-3</v>
       </c>
       <c r="N16" t="s">
         <v>5195</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="46">
         <v>1.5890999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>5194</v>
+      </c>
+      <c r="R16" s="46">
+        <v>3.1047900000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>5194</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="46">
         <v>1.3082E-3</v>
       </c>
       <c r="N17" t="s">
         <v>5189</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="46">
         <v>1.4149999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>5188</v>
+      </c>
+      <c r="R17" s="46">
+        <v>1.3495E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>5195</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="46">
         <v>1.2806E-3</v>
       </c>
       <c r="N18" t="s">
         <v>5209</v>
       </c>
-      <c r="O18" s="47">
+      <c r="O18" s="46">
         <v>1.4017999999999999E-2</v>
       </c>
-    </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>5185</v>
+      </c>
+      <c r="R18" s="46">
+        <v>7.4442000000000003E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>5196</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="46">
         <v>1.0483999999999999E-3</v>
       </c>
       <c r="N19" t="s">
         <v>5193</v>
       </c>
-      <c r="O19" s="47">
+      <c r="O19" s="46">
         <v>1.2788000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>5541</v>
+      </c>
+      <c r="R19" s="46">
+        <v>4.3523000000000003E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>5197</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>1.0483000000000001E-3</v>
       </c>
       <c r="N20" t="s">
         <v>5188</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="46">
         <v>1.2728E-2</v>
       </c>
-    </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>5182</v>
+      </c>
+      <c r="R20" s="46">
+        <v>2.0622E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>5198</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="46">
         <v>7.9639999999999995E-4</v>
       </c>
       <c r="N21" t="s">
         <v>5194</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="46">
         <v>1.0722000000000001E-2</v>
       </c>
-    </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>5183</v>
+      </c>
+      <c r="R21" s="46">
+        <v>1.6670000000000001E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>5199</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="46">
         <v>7.8859999999999998E-4</v>
       </c>
       <c r="N22" t="s">
         <v>5190</v>
       </c>
-      <c r="O22" s="47">
+      <c r="O22" s="46">
         <v>6.7140000000000003E-3</v>
       </c>
-    </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>5542</v>
+      </c>
+      <c r="R22" s="46">
+        <v>1.6426000000000002E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K23" t="s">
         <v>5200</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="46">
         <v>2.6219999999999998E-4</v>
       </c>
       <c r="N23" t="s">
         <v>5196</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="46">
         <v>5.6230000000000004E-3</v>
       </c>
-    </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>5193</v>
+      </c>
+      <c r="R23" s="46">
+        <v>1.436E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K24" t="s">
         <v>5201</v>
       </c>
-      <c r="L24" s="47">
+      <c r="L24" s="46">
         <v>2.4059999999999999E-4</v>
       </c>
       <c r="N24" t="s">
         <v>5192</v>
       </c>
-      <c r="O24" s="47">
+      <c r="O24" s="46">
         <v>5.4539999999999996E-3</v>
       </c>
-    </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>5543</v>
+      </c>
+      <c r="R24" s="46">
+        <v>1.0244999999999999E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>5202</v>
       </c>
-      <c r="L25" s="47">
+      <c r="L25" s="46">
         <v>7.2299999999999996E-5</v>
       </c>
       <c r="N25" t="s">
         <v>5202</v>
       </c>
-      <c r="O25" s="47">
+      <c r="O25" s="46">
         <v>5.2969999999999996E-3</v>
       </c>
-    </row>
-    <row r="26" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>5189</v>
+      </c>
+      <c r="R25" s="46">
+        <v>8.7860000000000002E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>5203</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="46">
         <v>2.8E-5</v>
       </c>
       <c r="N26" t="s">
         <v>5197</v>
       </c>
-      <c r="O26" s="47">
+      <c r="O26" s="46">
         <v>2.2720000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>5186</v>
+      </c>
+      <c r="R26" s="46">
+        <v>7.7449999999999995E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="11:18" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>5204</v>
       </c>
-      <c r="L27" s="47">
+      <c r="L27" s="46">
         <v>1.7499999999999998E-5</v>
       </c>
       <c r="N27" t="s">
         <v>5210</v>
       </c>
-      <c r="O27" s="47">
+      <c r="O27" s="46">
         <v>1.2769999999999999E-3</v>
       </c>
-    </row>
-    <row r="28" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>5203</v>
+      </c>
+      <c r="R27" s="46">
+        <v>1.1379999999999999E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N28" t="s">
         <v>5198</v>
       </c>
-      <c r="O28" s="47">
+      <c r="O28" s="46">
         <v>1.0679999999999999E-3</v>
       </c>
-    </row>
-    <row r="29" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>5192</v>
+      </c>
+      <c r="R28" s="46">
+        <v>9.7300000000000004E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N29" t="s">
         <v>5203</v>
       </c>
-      <c r="O29" s="47">
+      <c r="O29" s="46">
         <v>9.5600000000000004E-4</v>
       </c>
     </row>
-    <row r="30" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N30" t="s">
         <v>5200</v>
       </c>
-      <c r="O30" s="47">
+      <c r="O30" s="46">
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N31" t="s">
         <v>5211</v>
       </c>
-      <c r="O31" s="47">
+      <c r="O31" s="46">
         <v>4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="11:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:18" x14ac:dyDescent="0.2">
       <c r="N32" t="s">
         <v>5212</v>
       </c>
-      <c r="O32" s="47">
+      <c r="O32" s="46">
         <v>4.2499999999999998E-4</v>
       </c>
     </row>
@@ -48483,7 +48624,7 @@
       <c r="N33" t="s">
         <v>5213</v>
       </c>
-      <c r="O33" s="47">
+      <c r="O33" s="46">
         <v>2.7599999999999999E-4</v>
       </c>
     </row>
@@ -48491,7 +48632,7 @@
       <c r="N34" t="s">
         <v>5214</v>
       </c>
-      <c r="O34" s="47">
+      <c r="O34" s="46">
         <v>2.2699999999999999E-4</v>
       </c>
     </row>
@@ -48499,7 +48640,7 @@
       <c r="N35" t="s">
         <v>5204</v>
       </c>
-      <c r="O35" s="47">
+      <c r="O35" s="46">
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
@@ -48507,18 +48648,19 @@
       <c r="N36" t="s">
         <v>5201</v>
       </c>
-      <c r="O36" s="47">
+      <c r="O36" s="46">
         <v>1.3100000000000001E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -48528,7 +48670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L27">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="formula" val="MAX($L:$L)*2"/>
@@ -48542,7 +48684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="formula" val="MAX($O:$O)*2"/>
@@ -48551,6 +48693,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{17F85046-7FEA-F24F-9B65-4FDFEDB0C493}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="formula" val="MAX($R:$R)*2"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DC8DAFB-0FC6-9643-82F3-539690BDDA13}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -48585,6 +48741,19 @@
           </x14:cfRule>
           <xm:sqref>O1:O1048576</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DC8DAFB-0FC6-9643-82F3-539690BDDA13}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="formula">
+                <xm:f>MAX($R:$R)*2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R1:R1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -48595,12 +48764,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB9357-5024-5543-9551-F6A21B087F15}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -48614,7 +48783,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>4928</v>
+      </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -48684,28 +48855,28 @@
         <v>4952</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5514</v>
+        <v>5471</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5515</v>
+        <v>5472</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5481</v>
+        <v>5443</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5516</v>
+        <v>5473</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5517</v>
+        <v>5474</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5518</v>
+        <v>5475</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>5519</v>
+        <v>5476</v>
       </c>
       <c r="J3" s="6">
         <v>7.9000000000000001E-2</v>
@@ -48716,34 +48887,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5520</v>
+        <v>5491</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5521</v>
+        <v>5492</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5267</v>
+        <v>5493</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5522</v>
+        <v>5494</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>5523</v>
+        <v>5495</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5524</v>
+        <v>5496</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5525</v>
+        <v>5497</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>5526</v>
+        <v>5498</v>
       </c>
       <c r="J4" s="6">
-        <v>6.5000000000000002E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -48751,34 +48922,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>4958</v>
+        <v>4961</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5527</v>
+        <v>5499</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5528</v>
+        <v>5500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5481</v>
+        <v>5265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5529</v>
+        <v>5501</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5530</v>
+        <v>5502</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5531</v>
+        <v>5503</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5532</v>
+        <v>5504</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>5533</v>
+        <v>5505</v>
       </c>
       <c r="J5" s="6">
-        <v>5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -48786,34 +48957,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>5217</v>
+        <v>4956</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>5477</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>220</v>
+        <v>5478</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>613</v>
+        <v>5265</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>220</v>
+        <v>5479</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5218</v>
+        <v>5480</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>5481</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>220</v>
+        <v>5482</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>219</v>
+        <v>5483</v>
       </c>
       <c r="J6" s="6">
-        <v>0.63200000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -48821,95 +48992,101 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>5219</v>
+        <v>4958</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5220</v>
+        <v>5484</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5221</v>
+        <v>5485</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5222</v>
+        <v>5443</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>5223</v>
+        <v>5486</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>5224</v>
+        <v>5487</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>5225</v>
+        <v>5488</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5226</v>
+        <v>5489</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>5227</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>213</v>
+        <v>5490</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>5228</v>
+        <v>5215</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5229</v>
+        <v>220</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5230</v>
+        <v>220</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>5231</v>
+        <v>613</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>5232</v>
+        <v>220</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>5233</v>
+        <v>5216</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>5234</v>
+        <v>220</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5235</v>
+        <v>220</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>5236</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>5237</v>
+        <v>5217</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5238</v>
+        <v>5218</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5239</v>
+        <v>5219</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>5240</v>
+        <v>5220</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>5241</v>
+        <v>5221</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>5242</v>
+        <v>5222</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>5243</v>
+        <v>5223</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5244</v>
+        <v>5224</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>5245</v>
+        <v>5225</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>213</v>
@@ -48917,31 +49094,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5246</v>
+        <v>5226</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>5247</v>
+        <v>5227</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5248</v>
+        <v>5228</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5249</v>
+        <v>5229</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5250</v>
+        <v>5230</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>5251</v>
+        <v>5231</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>5252</v>
+        <v>5232</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>5253</v>
+        <v>5233</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>5254</v>
+        <v>5234</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>213</v>
@@ -48949,31 +49126,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5255</v>
+        <v>5235</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5256</v>
+        <v>5236</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5257</v>
+        <v>5237</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5258</v>
+        <v>5238</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>5259</v>
+        <v>5239</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>5260</v>
+        <v>5240</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>5261</v>
+        <v>5241</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>5262</v>
+        <v>5242</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>5263</v>
+        <v>5243</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>213</v>
@@ -48981,31 +49158,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>5264</v>
+        <v>5244</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5265</v>
+        <v>5245</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5266</v>
+        <v>5246</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5267</v>
+        <v>5247</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>5268</v>
+        <v>5248</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>5269</v>
+        <v>5249</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>5270</v>
+        <v>5250</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>5271</v>
+        <v>5251</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>5272</v>
+        <v>5252</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>213</v>
@@ -49013,31 +49190,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>5273</v>
+        <v>5253</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5274</v>
+        <v>5254</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5275</v>
+        <v>5255</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>218</v>
+        <v>5256</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5274</v>
+        <v>5257</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>5276</v>
+        <v>5258</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>5277</v>
+        <v>5259</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>5278</v>
+        <v>5260</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>5278</v>
+        <v>5261</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>213</v>
@@ -49045,104 +49222,98 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>620</v>
+        <v>5262</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4132</v>
+        <v>5263</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4133</v>
+        <v>5264</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>4134</v>
+        <v>5265</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>4135</v>
+        <v>5266</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4136</v>
+        <v>5267</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>4137</v>
+        <v>5268</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>4138</v>
+        <v>5269</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>4139</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.184</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
+        <v>5270</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>5008</v>
+        <v>5271</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5279</v>
+        <v>5272</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5280</v>
+        <v>5273</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5281</v>
+        <v>218</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>5282</v>
+        <v>5272</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>5283</v>
+        <v>5274</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>5284</v>
+        <v>5275</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>5285</v>
+        <v>5276</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>5286</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
+        <v>5276</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>620</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5287</v>
+        <v>4132</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5288</v>
+        <v>4133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>5289</v>
+        <v>4134</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>5290</v>
+        <v>4135</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>5291</v>
+        <v>4136</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>5292</v>
+        <v>4137</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>5293</v>
+        <v>4138</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>5294</v>
+        <v>4139</v>
       </c>
       <c r="J16" s="6">
-        <v>0.25800000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -49150,34 +49321,34 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>5003</v>
+        <v>5008</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5295</v>
+        <v>5277</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5296</v>
+        <v>5278</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>5297</v>
+        <v>5279</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>5298</v>
+        <v>5280</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>5299</v>
+        <v>5281</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>5300</v>
+        <v>5282</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>5301</v>
+        <v>5283</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>5302</v>
+        <v>5284</v>
       </c>
       <c r="J17" s="6">
-        <v>0.16200000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -49185,34 +49356,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>5066</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5303</v>
+        <v>5285</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5304</v>
+        <v>5286</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5305</v>
+        <v>5287</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>5306</v>
+        <v>5288</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>5307</v>
+        <v>5289</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>5308</v>
+        <v>5290</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>5309</v>
+        <v>5291</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>5310</v>
+        <v>5292</v>
       </c>
       <c r="J18" s="6">
-        <v>0.17799999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -49220,34 +49391,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>5066</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3833</v>
+        <v>5301</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3834</v>
+        <v>5302</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3835</v>
+        <v>5303</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>3836</v>
+        <v>5304</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>3837</v>
+        <v>5305</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>3838</v>
+        <v>5306</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>3839</v>
+        <v>5307</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>3840</v>
+        <v>5308</v>
       </c>
       <c r="J19" s="6">
-        <v>0.19600000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -49255,34 +49426,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>5003</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5311</v>
+        <v>5293</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5312</v>
+        <v>5294</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5313</v>
+        <v>5295</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>5314</v>
+        <v>5296</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>5315</v>
+        <v>5297</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>5316</v>
+        <v>5298</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>5317</v>
+        <v>5299</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>5318</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="6">
-        <v>0.186</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -49290,34 +49461,34 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>5089</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5319</v>
+        <v>3833</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5320</v>
+        <v>3834</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>5240</v>
+        <v>3835</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>5321</v>
+        <v>3836</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>5322</v>
+        <v>3837</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>5323</v>
+        <v>3838</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>5324</v>
+        <v>3839</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>5325</v>
+        <v>3840</v>
       </c>
       <c r="J21" s="6">
-        <v>0.11899999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -49325,7 +49496,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4713</v>
@@ -49360,34 +49531,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>220</v>
+        <v>5309</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>220</v>
+        <v>5310</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>613</v>
+        <v>5311</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>220</v>
+        <v>5312</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>5218</v>
+        <v>5313</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>220</v>
+        <v>5314</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>220</v>
+        <v>5315</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>219</v>
+        <v>5316</v>
       </c>
       <c r="J23" s="6">
-        <v>0.89100000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -49395,127 +49566,136 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>1149</v>
+        <v>5416</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5327</v>
+        <v>4735</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5328</v>
+        <v>4736</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>218</v>
+        <v>4737</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>5329</v>
+        <v>4738</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>5276</v>
+        <v>4739</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>5330</v>
+        <v>4740</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>5331</v>
+        <v>4741</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>5332</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>213</v>
+        <v>4742</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K24" s="1">
+        <v>92.6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>1150</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5333</v>
+        <v>4912</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5334</v>
+        <v>4913</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>218</v>
+        <v>4914</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>5335</v>
+        <v>4915</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>5336</v>
+        <v>4916</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>5337</v>
+        <v>4917</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>5338</v>
+        <v>4918</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>5339</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>213</v>
+        <v>4919</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>1151</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5340</v>
+        <v>220</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5341</v>
+        <v>220</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>5342</v>
+        <v>220</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>5343</v>
+        <v>5216</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>5344</v>
+        <v>220</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>5345</v>
+        <v>220</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>5346</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5347</v>
+        <v>5325</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5348</v>
+        <v>5326</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>5349</v>
+        <v>5327</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>5350</v>
+        <v>5274</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>5351</v>
+        <v>5328</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>5352</v>
+        <v>5329</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>5353</v>
+        <v>5330</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>213</v>
@@ -49523,31 +49703,31 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>5354</v>
+        <v>5331</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5355</v>
+        <v>5332</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>5356</v>
+        <v>5333</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>5357</v>
+        <v>5334</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>5358</v>
+        <v>5335</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>5359</v>
+        <v>5336</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>5360</v>
+        <v>5337</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>213</v>
@@ -49555,31 +49735,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5361</v>
+        <v>5338</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5362</v>
+        <v>5339</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>5363</v>
+        <v>5340</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>5364</v>
+        <v>5341</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>5365</v>
+        <v>5342</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>5366</v>
+        <v>5343</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>5367</v>
+        <v>5344</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>213</v>
@@ -49587,31 +49767,31 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5368</v>
+        <v>5345</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5369</v>
+        <v>5346</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>5370</v>
+        <v>5347</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>5371</v>
+        <v>5348</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>5372</v>
+        <v>5349</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>5373</v>
+        <v>5350</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>5374</v>
+        <v>5351</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>213</v>
@@ -49619,31 +49799,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>5375</v>
+        <v>5352</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5369</v>
+        <v>5353</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>5376</v>
+        <v>5354</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>5371</v>
+        <v>5355</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>5377</v>
+        <v>5356</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>5378</v>
+        <v>5357</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>5379</v>
+        <v>5358</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>213</v>
@@ -49651,31 +49831,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5380</v>
+        <v>5359</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5381</v>
+        <v>5360</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5382</v>
+        <v>218</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>5383</v>
+        <v>5361</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>5384</v>
+        <v>5362</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>5385</v>
+        <v>5363</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>5386</v>
+        <v>5364</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>5387</v>
+        <v>5365</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>213</v>
@@ -49683,31 +49863,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>5388</v>
+        <v>5366</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5389</v>
+        <v>5367</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>5390</v>
+        <v>218</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>5391</v>
+        <v>5368</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>5392</v>
+        <v>5369</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>5351</v>
+        <v>5370</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>5393</v>
+        <v>5371</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>5394</v>
+        <v>5372</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>213</v>
@@ -49715,209 +49895,200 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>1156</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4912</v>
+        <v>5373</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>4913</v>
+        <v>5367</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>4914</v>
+        <v>218</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>4915</v>
+        <v>5374</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>4916</v>
+        <v>5369</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>4917</v>
+        <v>5375</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>4918</v>
+        <v>5376</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>4919</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
+        <v>5377</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>5077</v>
+        <v>1157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>5395</v>
+        <v>5378</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5396</v>
+        <v>5379</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>5397</v>
+        <v>5380</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>5398</v>
+        <v>5381</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>5392</v>
+        <v>5382</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>5399</v>
+        <v>5383</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>5400</v>
+        <v>5384</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>5401</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
+        <v>5385</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>1158</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4769</v>
+        <v>5386</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4770</v>
+        <v>5387</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>4771</v>
+        <v>5388</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>4772</v>
+        <v>5389</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>4773</v>
+        <v>5390</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>4774</v>
+        <v>5349</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>4775</v>
+        <v>5391</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>4776</v>
-      </c>
-      <c r="J36" s="6">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>56.2</v>
+        <v>5392</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>5061</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>5402</v>
+        <v>4745</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5403</v>
+        <v>4746</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>5404</v>
+        <v>4747</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>5405</v>
+        <v>4748</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>5406</v>
+        <v>4749</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>5407</v>
+        <v>4750</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>5408</v>
+        <v>4751</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>5409</v>
+        <v>4752</v>
       </c>
       <c r="J37" s="6">
-        <v>0.13900000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>64.099999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4761</v>
+        <v>4769</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>4762</v>
+        <v>4770</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>4763</v>
+        <v>4771</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>4764</v>
+        <v>4772</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>4765</v>
+        <v>4773</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>4766</v>
+        <v>4774</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>4767</v>
+        <v>4775</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>4768</v>
+        <v>4776</v>
       </c>
       <c r="J38" s="6">
-        <v>0.08</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K38" s="1">
-        <v>52.3</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>5032</v>
+        <v>5089</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>5410</v>
+        <v>5317</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5411</v>
+        <v>5318</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>5412</v>
+        <v>5238</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>5413</v>
+        <v>5319</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>5414</v>
+        <v>5320</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>5415</v>
+        <v>5321</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>5416</v>
+        <v>5322</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>5417</v>
+        <v>5323</v>
       </c>
       <c r="J39" s="6">
-        <v>0.14499999999999999</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -49925,139 +50096,139 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>5083</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4745</v>
+        <v>5427</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>4746</v>
+        <v>5428</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>4747</v>
+        <v>5429</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>4748</v>
+        <v>5430</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>4749</v>
+        <v>5431</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>4750</v>
+        <v>5432</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>4751</v>
+        <v>5433</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>4752</v>
+        <v>5434</v>
       </c>
       <c r="J40" s="6">
-        <v>0.112</v>
+        <v>0.182</v>
       </c>
       <c r="K40" s="1">
-        <v>64.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>5061</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4753</v>
+        <v>5400</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>4754</v>
+        <v>5401</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>4755</v>
+        <v>5402</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>4756</v>
+        <v>5403</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>4757</v>
+        <v>5404</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>4758</v>
+        <v>5405</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>4759</v>
+        <v>5406</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>4760</v>
+        <v>5407</v>
       </c>
       <c r="J41" s="6">
-        <v>9.7000000000000003E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="K41" s="1">
-        <v>52.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>5418</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>4735</v>
+        <v>4753</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>4736</v>
+        <v>4754</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>4737</v>
+        <v>4755</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>4738</v>
+        <v>4756</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>4739</v>
+        <v>4757</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>4740</v>
+        <v>4758</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>4741</v>
+        <v>4759</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>4742</v>
+        <v>4760</v>
       </c>
       <c r="J42" s="6">
-        <v>0.21199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="K42" s="1">
-        <v>92.6</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>5016</v>
+        <v>5019</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5274</v>
+        <v>5421</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>218</v>
+        <v>5256</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>5274</v>
+        <v>5422</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
+        <v>5423</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>5274</v>
+        <v>5424</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>5278</v>
+        <v>5425</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>5278</v>
+        <v>5426</v>
       </c>
       <c r="J43" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>0.111</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -50065,139 +50236,139 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>5420</v>
+        <v>5048</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4721</v>
+        <v>5506</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>214</v>
+        <v>5507</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>214</v>
+        <v>5395</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>4722</v>
+        <v>5508</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>214</v>
+        <v>5509</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>235</v>
+        <v>5510</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>4723</v>
+        <v>5511</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>4724</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>217</v>
+        <v>5512</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.107</v>
       </c>
       <c r="K44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>5421</v>
+        <v>5418</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4725</v>
+        <v>4721</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>4726</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>4727</v>
+        <v>214</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>4728</v>
+        <v>4722</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>4729</v>
+        <v>214</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>4730</v>
+        <v>235</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>4731</v>
+        <v>4723</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>4732</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0.153</v>
+        <v>4724</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="K45" s="1">
-        <v>89.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>5082</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5422</v>
+        <v>4761</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>5423</v>
+        <v>4762</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>5382</v>
+        <v>4763</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>5424</v>
+        <v>4764</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>5425</v>
+        <v>4765</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>5426</v>
+        <v>4766</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>5427</v>
+        <v>4767</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>5428</v>
+        <v>4768</v>
       </c>
       <c r="J46" s="6">
-        <v>0.224</v>
+        <v>0.08</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>5019</v>
+        <v>5077</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5429</v>
+        <v>5393</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>5430</v>
+        <v>5394</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>5258</v>
+        <v>5395</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>5431</v>
+        <v>5396</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>5432</v>
+        <v>5390</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>5433</v>
+        <v>5397</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>5434</v>
+        <v>5398</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>5435</v>
+        <v>5399</v>
       </c>
       <c r="J47" s="6">
-        <v>0.111</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -50205,69 +50376,69 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>5083</v>
+        <v>5419</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>5436</v>
+        <v>4725</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>5437</v>
+        <v>4726</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>5438</v>
+        <v>4727</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>5439</v>
+        <v>4728</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>5440</v>
+        <v>4729</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>5441</v>
+        <v>4730</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>5442</v>
+        <v>4731</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>5443</v>
+        <v>4732</v>
       </c>
       <c r="J48" s="6">
-        <v>0.182</v>
+        <v>0.153</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>5032</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4904</v>
+        <v>5408</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>4905</v>
+        <v>5409</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>4906</v>
+        <v>5410</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>4907</v>
+        <v>5411</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>4908</v>
+        <v>5412</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>4909</v>
+        <v>5413</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>4910</v>
+        <v>5414</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>4911</v>
+        <v>5415</v>
       </c>
       <c r="J49" s="6">
-        <v>0.11600000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -50275,34 +50446,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>5070</v>
+        <v>5016</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>5444</v>
+        <v>5417</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>5445</v>
+        <v>5272</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>5446</v>
+        <v>5272</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>5447</v>
+        <v>218</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>5448</v>
+        <v>5272</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>5449</v>
+        <v>5276</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>5450</v>
+        <v>5276</v>
       </c>
       <c r="J50" s="6">
-        <v>5.6000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -50310,34 +50481,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>5055</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>5451</v>
+        <v>4904</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>5452</v>
+        <v>4905</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>218</v>
+        <v>4906</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>5453</v>
+        <v>4907</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>5454</v>
+        <v>4908</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>5455</v>
+        <v>4909</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>5456</v>
+        <v>4910</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>5457</v>
+        <v>4911</v>
       </c>
       <c r="J51" s="6">
-        <v>5.3999999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -50345,34 +50516,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>5012</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>5458</v>
+        <v>4117</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>5459</v>
+        <v>4118</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>218</v>
+        <v>4119</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>5460</v>
+        <v>4120</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>5461</v>
+        <v>4121</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>5462</v>
+        <v>4122</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>5463</v>
+        <v>4123</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>5464</v>
+        <v>4117</v>
       </c>
       <c r="J52" s="6">
-        <v>6.9000000000000006E-2</v>
+        <v>0.129</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -50380,34 +50551,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>5088</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>5465</v>
+        <v>220</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>5466</v>
+        <v>220</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>218</v>
+        <v>613</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>5467</v>
+        <v>220</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>5468</v>
+        <v>5216</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>5469</v>
+        <v>220</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>5470</v>
+        <v>220</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>5471</v>
+        <v>219</v>
       </c>
       <c r="J53" s="6">
-        <v>7.2999999999999995E-2</v>
+        <v>0.221</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -50415,136 +50586,127 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>5009</v>
+        <v>228</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>5472</v>
+        <v>5444</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>5473</v>
+        <v>5445</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>5297</v>
+        <v>218</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>5474</v>
+        <v>5438</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>5476</v>
+        <v>5446</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>5477</v>
+        <v>5447</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>5478</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0.112</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
+        <v>5448</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>5006</v>
+        <v>229</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>5479</v>
+        <v>5449</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5480</v>
+        <v>5450</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>5481</v>
+        <v>5395</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>5482</v>
+        <v>5451</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>5483</v>
+        <v>5452</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>5484</v>
+        <v>5453</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>5485</v>
+        <v>5454</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>5486</v>
-      </c>
-      <c r="J55" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
+        <v>5455</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>220</v>
+        <v>5456</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>220</v>
+        <v>5457</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>613</v>
+        <v>5458</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>220</v>
+        <v>5459</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>5218</v>
+        <v>5460</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>220</v>
+        <v>5461</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>220</v>
+        <v>5462</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0.221</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
+        <v>5463</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>5487</v>
+        <v>5464</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>5488</v>
+        <v>5465</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>5458</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>5466</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>5467</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5447</v>
-      </c>
       <c r="G57" s="3" t="s">
-        <v>5489</v>
+        <v>5468</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>5490</v>
+        <v>5469</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>5491</v>
+        <v>5470</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>213</v>
@@ -50552,130 +50714,139 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>229</v>
+        <v>5043</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5492</v>
+        <v>5513</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5493</v>
+        <v>5514</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>5397</v>
+        <v>5443</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>5494</v>
+        <v>5515</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>5495</v>
+        <v>5516</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>5496</v>
+        <v>5517</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>5497</v>
+        <v>5518</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>5498</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>213</v>
+        <v>5519</v>
+      </c>
+      <c r="J58" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>230</v>
+        <v>5088</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>5499</v>
+        <v>5436</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>5500</v>
+        <v>5437</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>5501</v>
+        <v>218</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>5502</v>
+        <v>5438</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>5503</v>
+        <v>5439</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>5504</v>
+        <v>5440</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>5505</v>
+        <v>5441</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>5506</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>213</v>
+        <v>5442</v>
+      </c>
+      <c r="J59" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5507</v>
+        <v>5520</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>5508</v>
+        <v>5521</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>5501</v>
+        <v>218</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>5509</v>
+        <v>5522</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>5510</v>
+        <v>5502</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>5511</v>
+        <v>5523</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>5512</v>
+        <v>5524</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>5513</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>213</v>
+        <v>5525</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>34</v>
+        <v>5097</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>4117</v>
+        <v>5526</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>4118</v>
+        <v>5527</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>4119</v>
+        <v>5429</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>4120</v>
+        <v>5528</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>4121</v>
+        <v>5529</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>4122</v>
+        <v>5530</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>4123</v>
+        <v>5531</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>4117</v>
+        <v>5532</v>
       </c>
       <c r="J61" s="6">
-        <v>0.129</v>
+        <v>0.113</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -50683,13 +50854,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:K1048576 B1:K1">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951561F-890B-7249-A5E4-2950448E53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F632AA-AF3C-5744-BD9A-0806B7594B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" activeTab="6" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="5547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="5548">
   <si>
     <t>.Typical</t>
   </si>
@@ -16752,13 +16752,16 @@
     <t>baseline.prior.opioid.use.03mo</t>
   </si>
   <si>
-    <t>Regimend: All Potential Features Included as Options</t>
-  </si>
-  <si>
     <t>Regimen: Exclude Baseline Prior Regimen Count</t>
   </si>
   <si>
     <t>Outcome:  All Potential Features Included as Options</t>
+  </si>
+  <si>
+    <t>Regimen: All Potential Features Included as Options</t>
+  </si>
+  <si>
+    <t>Regimen:  baseline_regimens.prior_cnt</t>
   </si>
 </sst>
 </file>
@@ -17083,6 +17086,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -17092,16 +17098,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -17156,30 +17159,6 @@
       <font>
         <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFAFFC4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -17650,11 +17629,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>1459</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -17685,11 +17664,11 @@
       <c r="C4" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -17730,11 +17709,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>1441</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -25387,13 +25366,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29983,13 +29962,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="18" priority="10">
       <formula>IF(AND($F1&gt;50,ISNUMBER($F1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>IF(AND($E1&gt;0.15,ISNUMBER($E1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39906,13 +39885,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47745,13 +47724,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:K1048576">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47780,28 +47759,28 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="47"/>
-      <c r="B1" s="50" t="s">
-        <v>5180</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="51" t="s">
+        <v>5547</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
       <c r="I1" s="47"/>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
+        <v>5546</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>5544</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5545</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="Q1" s="51" t="s">
-        <v>5546</v>
-      </c>
-      <c r="R1" s="51"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" s="45" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -47846,7 +47825,7 @@
       <c r="Q2" s="15" t="s">
         <v>5178</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="49" t="s">
         <v>5179</v>
       </c>
     </row>
@@ -50853,18 +50832,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:K1048576 B1:K1">
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8">
-      <formula>IF(OR(_xlfn.TEXTBEFORE($A1," ")="src",_xlfn.TEXTBEFORE($A1," ")="intervention"),1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>IF(AND($J1&gt;0.15,ISNUMBER($J1)),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="A1:K1048576">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>IF(AND($K1&gt;50,ISNUMBER($K1)),1,0)</formula>
     </cfRule>

--- a/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
+++ b/otsuka_szbp1/Otsuka_SzBP_DefXplr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/GitHub/Clients/otsuka_szbp1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A989C-C2AF-CC42-A628-4CF5F2367D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7B82C1-3B29-B648-9156-CAF59DFF4BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17340" activeTab="5" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
+    <workbookView xWindow="-4020" yWindow="-20200" windowWidth="29400" windowHeight="17340" xr2:uid="{B9B1193B-EC69-C747-9EE3-9BD681824387}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyNeeds" sheetId="12" r:id="rId1"/>
@@ -19003,8 +19003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B586A33-FF0D-0E41-8C7C-D87B43C8EA77}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24177,12 +24177,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D01C0-5A1A-7F42-B674-107DEA1902CC}">
   <dimension ref="A1:H238"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38129,7 +38129,7 @@
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:A35"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45963,7 +45963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDDD937-B18B-C541-9970-925A1C4CD83B}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
